--- a/test/연구비_집행관리.xlsx
+++ b/test/연구비_집행관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BB1\Desktop\업무\연구비자동화\KISS-\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EE5DAD-1532-47F5-AF54-9CD1B2595785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E4E67C-4DB8-4A18-B8D6-431063DC786C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="156">
   <si>
     <t>업데이트: 2025-09-10</t>
   </si>
@@ -523,12 +523,21 @@
   <si>
     <t>예산금액 합계</t>
   </si>
+  <si>
+    <t>📊 연도별 예산 비교 분석</t>
+  </si>
+  <si>
+    <t>연도별 예산과목별 예산금액을 비교분석할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>※ 우측 슬라이서를 사용하여 특정 예산과목이나 연도를 필터링할 수 있습니다.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +706,31 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFB6752E"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF595959"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF808080"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -880,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -973,6 +1007,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1105,7 +1142,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CFFD-4487-9980-ACB12169B303}"/>
+              <c16:uniqueId val="{00000000-F788-4AEE-A29B-77EB080CF04B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1261,7 +1298,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F6D-426F-9ADB-CB587F810E92}"/>
+              <c16:uniqueId val="{00000000-9F16-4880-B96E-7B3A7FCC4ADF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1784,7 +1821,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D05-4DD3-BE51-724C95321335}"/>
+              <c16:uniqueId val="{00000002-2CB8-4A3A-B999-EE3CB7D86575}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1972,7 +2009,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9D05-4DD3-BE51-724C95321335}"/>
+              <c16:uniqueId val="{00000003-2CB8-4A3A-B999-EE3CB7D86575}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2160,7 +2197,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9D05-4DD3-BE51-724C95321335}"/>
+              <c16:uniqueId val="{00000004-2CB8-4A3A-B999-EE3CB7D86575}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2345,7 +2382,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9D05-4DD3-BE51-724C95321335}"/>
+              <c16:uniqueId val="{00000005-2CB8-4A3A-B999-EE3CB7D86575}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2358,11 +2395,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="74044576"/>
-        <c:axId val="74045056"/>
+        <c:axId val="1808028128"/>
+        <c:axId val="1808044928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74044576"/>
+        <c:axId val="1808028128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2497,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74045056"/>
+        <c:crossAx val="1808044928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2468,7 +2505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74045056"/>
+        <c:axId val="1808044928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +2623,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74044576"/>
+        <c:crossAx val="1808028128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2598,6 +2635,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2645,6 +2713,7 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -3132,7 +3201,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-949E-4C46-B6E3-3ED0B4BA9ECA}"/>
+              <c16:uniqueId val="{00000000-C9C2-469C-B1D0-91505B65430A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3305,7 +3374,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-949E-4C46-B6E3-3ED0B4BA9ECA}"/>
+              <c16:uniqueId val="{00000001-C9C2-469C-B1D0-91505B65430A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3478,7 +3547,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-949E-4C46-B6E3-3ED0B4BA9ECA}"/>
+              <c16:uniqueId val="{00000002-C9C2-469C-B1D0-91505B65430A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3651,7 +3720,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-949E-4C46-B6E3-3ED0B4BA9ECA}"/>
+              <c16:uniqueId val="{00000003-C9C2-469C-B1D0-91505B65430A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3664,11 +3733,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2062250416"/>
-        <c:axId val="2062250896"/>
+        <c:axId val="1205376736"/>
+        <c:axId val="1205365696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2062250416"/>
+        <c:axId val="1205376736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3711,7 +3780,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2062250896"/>
+        <c:crossAx val="1205365696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3719,7 +3788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2062250896"/>
+        <c:axId val="1205365696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3770,7 +3839,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2062250416"/>
+        <c:crossAx val="1205376736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5017,30 +5086,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="4" name="차트 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0551046-357C-2A51-EBD7-31681B1D2647}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C378A2-4A21-16B9-8057-E8C25370B9E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5052,7 +5116,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5060,25 +5124,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>663575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="YearlyBudgetItemSlicer">
+            <xdr:cNvPr id="5" name="DashboardYearSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E01B31-3B50-23CE-2EE7-3C5BA6180BF7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79785D2-ACAE-C91E-33E8-EFE46980F916}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5090,7 +5154,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="YearlyBudgetItemSlicer"/>
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="DashboardYearSlicer"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -5105,8 +5169,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13335000" y="635000"/>
-              <a:ext cx="2540000" cy="5080000"/>
+              <a:off x="10414000" y="16697325"/>
+              <a:ext cx="1524000" cy="1714500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5138,25 +5202,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>663575</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="YearSlicer">
+            <xdr:cNvPr id="6" name="DashboardBudgetItemSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C351BAC0-2F64-39CB-B914-E28FB49E7317}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD73C2C-4A33-1B27-8A5D-7FBEFFE5B57E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5168,7 +5232,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="YearSlicer"/>
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="DashboardBudgetItemSlicer"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -5183,8 +5247,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13335000" y="5969000"/>
-              <a:ext cx="2540000" cy="1905000"/>
+              <a:off x="10414000" y="18437225"/>
+              <a:ext cx="1524000" cy="3340100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5217,7 +5281,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5237,7 +5301,7 @@
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF472B75-850B-23BB-887D-0A4D92404FB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817536CD-04F0-7044-A126-7C3F85C0553F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5275,7 +5339,7 @@
             <xdr:cNvPr id="3" name="BudgetItemSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997704E2-135C-8D12-3294-A62C14679B9E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FC7BF7-4917-9959-2C6C-69096D6ED7F3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5353,7 +5417,7 @@
             <xdr:cNvPr id="4" name="CharacteristicsSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BC4BE0-A597-8637-28E6-6E2E73AEE578}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9BAC93-AA97-D09D-2B60-0E7C66E2002F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5415,7 +5479,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45910.437435416665" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="84" xr:uid="{97BB01A6-7F7F-4808-B571-714D48E7C11B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45910.469465509261" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="84" xr:uid="{6B52EDDA-AEAA-47D5-A65C-4C71FBDFCF30}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C85" sheet="예산분석데이터"/>
   </cacheSource>
@@ -5459,14 +5523,14 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="713159068"/>
+      <x14:pivotCacheDefinition pivotCacheId="2051505102"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45910.437475925923" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="91" xr:uid="{0448E3F1-0ACD-4467-9D7B-47713A6BB028}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45910.469504513887" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="91" xr:uid="{1D3EA48C-D9A8-41B5-AC5F-DE595311E6C8}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C92" sheet="연도별예산데이터"/>
   </cacheSource>
@@ -5513,7 +5577,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1935553530"/>
+      <x14:pivotCacheDefinition pivotCacheId="1282541508"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -6405,7 +6469,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B58E894E-E12A-463F-94AF-0E0C7389F449}" name="YearlyBudgetComparison" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA3ED715-F06F-48A7-AD30-F58AD213F319}" name="YearlyBudgetComparison" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B5:F30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -6605,7 +6669,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40456542-EF7A-46D0-84F1-70DD4A0BF429}" name="BudgetAnalysisPivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD49E316-44DA-483D-A91A-D4AD88D29586}" name="BudgetAnalysisPivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -6793,12 +6857,12 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목" xr10:uid="{A33A5079-0A1E-4394-9976-458049AB602C}" sourceName="예산과목">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목" xr10:uid="{F6CC4C4D-8D9F-42BA-A6DE-298BAA358CEB}" sourceName="예산과목">
   <pivotTables>
     <pivotTable tabId="7" name="BudgetAnalysisPivot"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="713159068">
+    <tabular pivotCacheId="2051505102">
       <items count="21">
         <i x="17" s="1"/>
         <i x="18" s="1"/>
@@ -6828,12 +6892,12 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_특성" xr10:uid="{E7B8FC43-4AAC-411F-924E-E5DC410D7D5C}" sourceName="특성">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_특성" xr10:uid="{B8875753-D3A2-4CEF-8014-44B2BECA0BA1}" sourceName="특성">
   <pivotTables>
     <pivotTable tabId="7" name="BudgetAnalysisPivot"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="713159068">
+    <tabular pivotCacheId="2051505102">
       <items count="4">
         <i x="0" s="1"/>
         <i x="2" s="1"/>
@@ -6846,12 +6910,30 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목1" xr10:uid="{B61F5BDE-E36D-439C-A0F2-D82C027A6F3E}" sourceName="예산과목">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_연도" xr10:uid="{5204D1A5-7648-433F-B99A-44015DBA5BD9}" sourceName="연도">
   <pivotTables>
     <pivotTable tabId="10" name="YearlyBudgetComparison"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1935553530">
+    <tabular pivotCacheId="1282541508">
+      <items count="4">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목1" xr10:uid="{4F4AE2A7-4262-4148-978D-6C963B5CF47F}" sourceName="예산과목">
+  <pivotTables>
+    <pivotTable tabId="10" name="YearlyBudgetComparison"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1282541508">
       <items count="24">
         <i x="17" s="1"/>
         <i x="18" s="1"/>
@@ -6883,35 +6965,17 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_연도" xr10:uid="{407ECAFF-5D90-449A-B6B7-E8C47D1510F6}" sourceName="연도">
-  <pivotTables>
-    <pivotTable tabId="10" name="YearlyBudgetComparison"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1935553530">
-      <items count="4">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="YearlyBudgetItemSlicer" xr10:uid="{BFB47272-E849-4ECD-BD86-DB1121A579FE}" cache="슬라이서_예산과목1" caption="예산과목 선택" rowHeight="273050"/>
-  <slicer name="YearSlicer" xr10:uid="{6962CB15-939A-4F7B-9F82-F531D13C8AB5}" cache="슬라이서_연도" caption="연도 선택" rowHeight="273050"/>
+  <slicer name="DashboardYearSlicer" xr10:uid="{3EA60C01-B3A2-477B-BE2D-7B6B2BB0DB17}" cache="슬라이서_연도" caption="연도 선택" rowHeight="273050"/>
+  <slicer name="DashboardBudgetItemSlicer" xr10:uid="{B84A09DA-BCFA-4CFC-8A93-D8C5761332B8}" cache="슬라이서_예산과목1" caption="예산과목 선택" rowHeight="273050"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="BudgetItemSlicer" xr10:uid="{575C8E86-B527-4E2E-A500-B35B5F87A50A}" cache="슬라이서_예산과목" caption="예산과목 선택" rowHeight="273050"/>
-  <slicer name="CharacteristicsSlicer" xr10:uid="{D6EBF50A-9891-4832-8859-55D6AC473496}" cache="슬라이서_특성" caption="측정항목 선택" rowHeight="273050"/>
+  <slicer name="BudgetItemSlicer" xr10:uid="{F4E35D94-06F1-4217-B687-621AB791D3BB}" cache="슬라이서_예산과목" caption="예산과목 선택" rowHeight="273050"/>
+  <slicer name="CharacteristicsSlicer" xr10:uid="{878B7F34-2717-4294-81C7-54A40AD24DC1}" cache="슬라이서_특성" caption="측정항목 선택" rowHeight="273050"/>
 </slicers>
 </file>
 
@@ -7241,15 +7305,15 @@
     </row>
     <row r="2" spans="1:22" ht="45" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -7267,15 +7331,15 @@
     </row>
     <row r="3" spans="1:22" ht="30" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -7293,16 +7357,16 @@
     </row>
     <row r="4" spans="1:22" ht="9.9499999999999993" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -8033,10 +8097,10 @@
     </row>
     <row r="29" spans="1:22" ht="24.95" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="39" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="18" t="s">
@@ -8075,8 +8139,8 @@
     </row>
     <row r="30" spans="1:22" ht="24.95" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="18" t="s">
         <v>40</v>
       </c>
@@ -8113,8 +8177,8 @@
     </row>
     <row r="31" spans="1:22" ht="24.95" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="18" t="s">
         <v>41</v>
       </c>
@@ -8151,8 +8215,8 @@
     </row>
     <row r="32" spans="1:22" ht="24.95" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="18" t="s">
         <v>42</v>
       </c>
@@ -8189,8 +8253,8 @@
     </row>
     <row r="33" spans="1:22" ht="24.95" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="36" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="39" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="18" t="s">
@@ -8229,8 +8293,8 @@
     </row>
     <row r="34" spans="1:22" ht="24.95" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="18" t="s">
         <v>45</v>
       </c>
@@ -8267,8 +8331,8 @@
     </row>
     <row r="35" spans="1:22" ht="24.95" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="18" t="s">
         <v>46</v>
       </c>
@@ -8305,7 +8369,7 @@
     </row>
     <row r="36" spans="1:22" ht="24.95" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="42"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="18" t="s">
         <v>47</v>
       </c>
@@ -8345,7 +8409,7 @@
     </row>
     <row r="37" spans="1:22" ht="24.95" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="42"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="18" t="s">
         <v>48</v>
       </c>
@@ -8385,7 +8449,7 @@
     </row>
     <row r="38" spans="1:22" ht="24.95" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="42"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="18" t="s">
         <v>49</v>
       </c>
@@ -8425,7 +8489,7 @@
     </row>
     <row r="39" spans="1:22" ht="24.95" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="42"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="18" t="s">
         <v>50</v>
       </c>
@@ -8465,8 +8529,8 @@
     </row>
     <row r="40" spans="1:22" ht="24.95" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="36" t="s">
+      <c r="B40" s="45"/>
+      <c r="C40" s="39" t="s">
         <v>51</v>
       </c>
       <c r="D40" s="18" t="s">
@@ -8505,8 +8569,8 @@
     </row>
     <row r="41" spans="1:22" ht="24.95" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="37"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="18" t="s">
         <v>53</v>
       </c>
@@ -8543,8 +8607,8 @@
     </row>
     <row r="42" spans="1:22" ht="24.95" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="36" t="s">
+      <c r="B42" s="45"/>
+      <c r="C42" s="39" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="18" t="s">
@@ -8583,8 +8647,8 @@
     </row>
     <row r="43" spans="1:22" ht="24.95" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="18" t="s">
         <v>54</v>
       </c>
@@ -8621,7 +8685,7 @@
     </row>
     <row r="44" spans="1:22" ht="24.95" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="18" t="s">
@@ -8663,7 +8727,7 @@
     </row>
     <row r="45" spans="1:22" ht="24.95" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="37"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="18" t="s">
         <v>58</v>
       </c>
@@ -8703,10 +8767,10 @@
     </row>
     <row r="46" spans="1:22" ht="24.95" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="39" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="18" t="s">
@@ -8745,8 +8809,8 @@
     </row>
     <row r="47" spans="1:22" ht="24.95" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="18" t="s">
         <v>62</v>
       </c>
@@ -8783,16 +8847,16 @@
     </row>
     <row r="48" spans="1:22" ht="24.95" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -8831,7 +8895,9 @@
     </row>
     <row r="50" spans="1:22" ht="24.95" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="34" t="s">
+        <v>153</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -8855,7 +8921,9 @@
     </row>
     <row r="51" spans="1:22" ht="24.95" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="35" t="s">
+        <v>154</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -8879,7 +8947,9 @@
     </row>
     <row r="52" spans="1:22" ht="24.95" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="36" t="s">
+        <v>155</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -9087,11 +9157,18 @@
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5890F074-B244-4B8C-96B0-F41D16E3F33D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BBE7E-1815-4BBE-91A5-050434244AB3}">
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -10137,10 +10214,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -10165,8 +10242,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="21" t="s">
         <v>40</v>
       </c>
@@ -10189,8 +10266,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="21" t="s">
         <v>41</v>
       </c>
@@ -10213,8 +10290,8 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="21" t="s">
         <v>42</v>
       </c>
@@ -10237,8 +10314,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="45"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -10263,8 +10340,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="21" t="s">
         <v>45</v>
       </c>
@@ -10287,8 +10364,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="21" t="s">
         <v>46</v>
       </c>
@@ -10311,7 +10388,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="45"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="21" t="s">
         <v>47</v>
       </c>
@@ -10337,7 +10414,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="21" t="s">
         <v>48</v>
       </c>
@@ -10363,7 +10440,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="45"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="21" t="s">
         <v>49</v>
       </c>
@@ -10389,7 +10466,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="45"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="21" t="s">
         <v>50</v>
       </c>
@@ -10415,8 +10492,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="45"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="47" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -10441,8 +10518,8 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
@@ -10465,8 +10542,8 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="45"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="47" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -10491,8 +10568,8 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="21" t="s">
         <v>54</v>
       </c>
@@ -10515,7 +10592,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -10543,7 +10620,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="45"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="21" t="s">
         <v>58</v>
       </c>
@@ -10569,10 +10646,10 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="47" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -10597,8 +10674,8 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="21" t="s">
         <v>62</v>
       </c>
@@ -10752,10 +10829,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -10777,8 +10854,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="21" t="s">
         <v>40</v>
       </c>
@@ -10798,8 +10875,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="21" t="s">
         <v>41</v>
       </c>
@@ -10819,8 +10896,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="21" t="s">
         <v>42</v>
       </c>
@@ -10840,8 +10917,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="45"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -10863,8 +10940,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="21" t="s">
         <v>45</v>
       </c>
@@ -10884,8 +10961,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="21" t="s">
         <v>46</v>
       </c>
@@ -10905,7 +10982,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="45"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="21" t="s">
         <v>47</v>
       </c>
@@ -10928,7 +11005,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="21" t="s">
         <v>48</v>
       </c>
@@ -10951,7 +11028,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="45"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="21" t="s">
         <v>49</v>
       </c>
@@ -10974,7 +11051,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="45"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="21" t="s">
         <v>50</v>
       </c>
@@ -10997,8 +11074,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="45"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="47" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -11020,8 +11097,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
@@ -11041,8 +11118,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="45"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="47" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -11064,8 +11141,8 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="21" t="s">
         <v>54</v>
       </c>
@@ -11085,7 +11162,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -11110,7 +11187,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="45"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="21" t="s">
         <v>58</v>
       </c>
@@ -11133,10 +11210,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="47" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -11158,8 +11235,8 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="21" t="s">
         <v>62</v>
       </c>
@@ -11327,10 +11404,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -11354,8 +11431,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="21" t="s">
         <v>40</v>
       </c>
@@ -11377,8 +11454,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="21" t="s">
         <v>41</v>
       </c>
@@ -11400,8 +11477,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="21" t="s">
         <v>42</v>
       </c>
@@ -11423,8 +11500,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="45"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -11448,8 +11525,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="21" t="s">
         <v>45</v>
       </c>
@@ -11471,8 +11548,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="21" t="s">
         <v>46</v>
       </c>
@@ -11494,7 +11571,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="21" t="s">
         <v>47</v>
       </c>
@@ -11519,7 +11596,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="45"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="21" t="s">
         <v>48</v>
       </c>
@@ -11544,7 +11621,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="45"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="21" t="s">
         <v>49</v>
       </c>
@@ -11569,7 +11646,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="45"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="21" t="s">
         <v>50</v>
       </c>
@@ -11594,8 +11671,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="45"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="47" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -11619,8 +11696,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="21" t="s">
         <v>53</v>
       </c>
@@ -11642,8 +11719,8 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="45"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="47" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="21" t="s">
@@ -11667,8 +11744,8 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="21" t="s">
         <v>54</v>
       </c>
@@ -11690,7 +11767,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -11717,7 +11794,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="45"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="21" t="s">
         <v>58</v>
       </c>
@@ -11742,10 +11819,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="47" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -11769,8 +11846,8 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="21" t="s">
         <v>62</v>
       </c>
@@ -11998,10 +12075,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="21" t="s">
@@ -12023,8 +12100,8 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="21" t="s">
         <v>40</v>
       </c>
@@ -12044,8 +12121,8 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="21" t="s">
         <v>41</v>
       </c>
@@ -12065,8 +12142,8 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="21" t="s">
         <v>42</v>
       </c>
@@ -12086,8 +12163,8 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="45"/>
-      <c r="B38" s="44" t="s">
+      <c r="A38" s="48"/>
+      <c r="B38" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -12109,8 +12186,8 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="21" t="s">
         <v>45</v>
       </c>
@@ -12130,8 +12207,8 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="21" t="s">
         <v>46</v>
       </c>
@@ -12151,7 +12228,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="45"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="21" t="s">
         <v>47</v>
       </c>
@@ -12174,7 +12251,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="45"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="21" t="s">
         <v>48</v>
       </c>
@@ -12197,7 +12274,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="45"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="21" t="s">
         <v>49</v>
       </c>
@@ -12220,7 +12297,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="45"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="21" t="s">
         <v>50</v>
       </c>
@@ -12243,8 +12320,8 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="45"/>
-      <c r="B45" s="44" t="s">
+      <c r="A45" s="48"/>
+      <c r="B45" s="47" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -12266,8 +12343,8 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="21" t="s">
         <v>53</v>
       </c>
@@ -12287,8 +12364,8 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="45"/>
-      <c r="B47" s="44" t="s">
+      <c r="A47" s="48"/>
+      <c r="B47" s="47" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -12310,8 +12387,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="21" t="s">
         <v>54</v>
       </c>
@@ -12331,7 +12408,7 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -12356,7 +12433,7 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="45"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="21" t="s">
         <v>58</v>
       </c>
@@ -12379,10 +12456,10 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="47" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="21" t="s">
@@ -12404,8 +12481,8 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="21" t="s">
         <v>62</v>
       </c>
@@ -12604,10 +12681,10 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C62" s="21" t="s">
@@ -12629,8 +12706,8 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="21" t="s">
         <v>40</v>
       </c>
@@ -12650,8 +12727,8 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="21" t="s">
         <v>41</v>
       </c>
@@ -12671,8 +12748,8 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="21" t="s">
         <v>42</v>
       </c>
@@ -12692,8 +12769,8 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="45"/>
-      <c r="B66" s="44" t="s">
+      <c r="A66" s="48"/>
+      <c r="B66" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C66" s="21" t="s">
@@ -12715,8 +12792,8 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="21" t="s">
         <v>45</v>
       </c>
@@ -12736,8 +12813,8 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="21" t="s">
         <v>46</v>
       </c>
@@ -12757,7 +12834,7 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="45"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="21" t="s">
         <v>47</v>
       </c>
@@ -12780,7 +12857,7 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="45"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="21" t="s">
         <v>48</v>
       </c>
@@ -12803,7 +12880,7 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="45"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="21" t="s">
         <v>49</v>
       </c>
@@ -12826,7 +12903,7 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="45"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="21" t="s">
         <v>50</v>
       </c>
@@ -12849,8 +12926,8 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="45"/>
-      <c r="B73" s="44" t="s">
+      <c r="A73" s="48"/>
+      <c r="B73" s="47" t="s">
         <v>51</v>
       </c>
       <c r="C73" s="21" t="s">
@@ -12872,8 +12949,8 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
+      <c r="A74" s="48"/>
+      <c r="B74" s="48"/>
       <c r="C74" s="21" t="s">
         <v>53</v>
       </c>
@@ -12893,8 +12970,8 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="45"/>
-      <c r="B75" s="44" t="s">
+      <c r="A75" s="48"/>
+      <c r="B75" s="47" t="s">
         <v>54</v>
       </c>
       <c r="C75" s="21" t="s">
@@ -12916,8 +12993,8 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
+      <c r="A76" s="48"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="21" t="s">
         <v>54</v>
       </c>
@@ -12937,7 +13014,7 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B77" s="21" t="s">
@@ -12962,7 +13039,7 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="45"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="21" t="s">
         <v>58</v>
       </c>
@@ -12985,10 +13062,10 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="47" t="s">
         <v>61</v>
       </c>
       <c r="C79" s="21" t="s">
@@ -13010,8 +13087,8 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="45"/>
-      <c r="B80" s="45"/>
+      <c r="A80" s="48"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="21" t="s">
         <v>62</v>
       </c>
@@ -13210,10 +13287,10 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="44" t="s">
+      <c r="A90" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C90" s="21" t="s">
@@ -13235,8 +13312,8 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45"/>
+      <c r="A91" s="48"/>
+      <c r="B91" s="48"/>
       <c r="C91" s="21" t="s">
         <v>40</v>
       </c>
@@ -13256,8 +13333,8 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="45"/>
-      <c r="B92" s="45"/>
+      <c r="A92" s="48"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="21" t="s">
         <v>41</v>
       </c>
@@ -13277,8 +13354,8 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="45"/>
-      <c r="B93" s="45"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="21" t="s">
         <v>42</v>
       </c>
@@ -13298,8 +13375,8 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="45"/>
-      <c r="B94" s="44" t="s">
+      <c r="A94" s="48"/>
+      <c r="B94" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C94" s="21" t="s">
@@ -13321,8 +13398,8 @@
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
+      <c r="A95" s="48"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="21" t="s">
         <v>45</v>
       </c>
@@ -13342,8 +13419,8 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
+      <c r="A96" s="48"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="21" t="s">
         <v>46</v>
       </c>
@@ -13363,7 +13440,7 @@
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="45"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="21" t="s">
         <v>47</v>
       </c>
@@ -13386,7 +13463,7 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="45"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="21" t="s">
         <v>48</v>
       </c>
@@ -13409,7 +13486,7 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="45"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="21" t="s">
         <v>49</v>
       </c>
@@ -13432,7 +13509,7 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="45"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="21" t="s">
         <v>50</v>
       </c>
@@ -13455,8 +13532,8 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="45"/>
-      <c r="B101" s="44" t="s">
+      <c r="A101" s="48"/>
+      <c r="B101" s="47" t="s">
         <v>51</v>
       </c>
       <c r="C101" s="21" t="s">
@@ -13478,8 +13555,8 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="45"/>
-      <c r="B102" s="45"/>
+      <c r="A102" s="48"/>
+      <c r="B102" s="48"/>
       <c r="C102" s="21" t="s">
         <v>53</v>
       </c>
@@ -13499,8 +13576,8 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="45"/>
-      <c r="B103" s="44" t="s">
+      <c r="A103" s="48"/>
+      <c r="B103" s="47" t="s">
         <v>54</v>
       </c>
       <c r="C103" s="21" t="s">
@@ -13522,8 +13599,8 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="45"/>
-      <c r="B104" s="45"/>
+      <c r="A104" s="48"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="21" t="s">
         <v>54</v>
       </c>
@@ -13543,7 +13620,7 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="44" t="s">
+      <c r="A105" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B105" s="21" t="s">
@@ -13568,7 +13645,7 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="45"/>
+      <c r="A106" s="48"/>
       <c r="B106" s="21" t="s">
         <v>58</v>
       </c>
@@ -13591,10 +13668,10 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="44" t="s">
+      <c r="A107" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B107" s="44" t="s">
+      <c r="B107" s="47" t="s">
         <v>61</v>
       </c>
       <c r="C107" s="21" t="s">
@@ -13616,8 +13693,8 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
+      <c r="A108" s="48"/>
+      <c r="B108" s="48"/>
       <c r="C108" s="21" t="s">
         <v>62</v>
       </c>
@@ -13816,10 +13893,10 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="44" t="s">
+      <c r="A118" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B118" s="44" t="s">
+      <c r="B118" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C118" s="21" t="s">
@@ -13841,8 +13918,8 @@
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="45"/>
-      <c r="B119" s="45"/>
+      <c r="A119" s="48"/>
+      <c r="B119" s="48"/>
       <c r="C119" s="21" t="s">
         <v>40</v>
       </c>
@@ -13862,8 +13939,8 @@
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="45"/>
-      <c r="B120" s="45"/>
+      <c r="A120" s="48"/>
+      <c r="B120" s="48"/>
       <c r="C120" s="21" t="s">
         <v>41</v>
       </c>
@@ -13883,8 +13960,8 @@
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="45"/>
-      <c r="B121" s="45"/>
+      <c r="A121" s="48"/>
+      <c r="B121" s="48"/>
       <c r="C121" s="21" t="s">
         <v>42</v>
       </c>
@@ -13904,8 +13981,8 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="45"/>
-      <c r="B122" s="44" t="s">
+      <c r="A122" s="48"/>
+      <c r="B122" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C122" s="21" t="s">
@@ -13927,8 +14004,8 @@
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="45"/>
-      <c r="B123" s="45"/>
+      <c r="A123" s="48"/>
+      <c r="B123" s="48"/>
       <c r="C123" s="21" t="s">
         <v>45</v>
       </c>
@@ -13948,8 +14025,8 @@
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="45"/>
-      <c r="B124" s="45"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="48"/>
       <c r="C124" s="21" t="s">
         <v>46</v>
       </c>
@@ -13969,7 +14046,7 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="45"/>
+      <c r="A125" s="48"/>
       <c r="B125" s="21" t="s">
         <v>47</v>
       </c>
@@ -13992,7 +14069,7 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="45"/>
+      <c r="A126" s="48"/>
       <c r="B126" s="21" t="s">
         <v>48</v>
       </c>
@@ -14015,7 +14092,7 @@
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="45"/>
+      <c r="A127" s="48"/>
       <c r="B127" s="21" t="s">
         <v>49</v>
       </c>
@@ -14038,7 +14115,7 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="45"/>
+      <c r="A128" s="48"/>
       <c r="B128" s="21" t="s">
         <v>50</v>
       </c>
@@ -14061,8 +14138,8 @@
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="45"/>
-      <c r="B129" s="44" t="s">
+      <c r="A129" s="48"/>
+      <c r="B129" s="47" t="s">
         <v>51</v>
       </c>
       <c r="C129" s="21" t="s">
@@ -14084,8 +14161,8 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="45"/>
-      <c r="B130" s="45"/>
+      <c r="A130" s="48"/>
+      <c r="B130" s="48"/>
       <c r="C130" s="21" t="s">
         <v>53</v>
       </c>
@@ -14105,8 +14182,8 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="45"/>
-      <c r="B131" s="44" t="s">
+      <c r="A131" s="48"/>
+      <c r="B131" s="47" t="s">
         <v>54</v>
       </c>
       <c r="C131" s="21" t="s">
@@ -14128,8 +14205,8 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="45"/>
-      <c r="B132" s="45"/>
+      <c r="A132" s="48"/>
+      <c r="B132" s="48"/>
       <c r="C132" s="21" t="s">
         <v>54</v>
       </c>
@@ -14149,7 +14226,7 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="44" t="s">
+      <c r="A133" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B133" s="21" t="s">
@@ -14174,7 +14251,7 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="45"/>
+      <c r="A134" s="48"/>
       <c r="B134" s="21" t="s">
         <v>58</v>
       </c>
@@ -14197,10 +14274,10 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="44" t="s">
+      <c r="A135" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B135" s="44" t="s">
+      <c r="B135" s="47" t="s">
         <v>61</v>
       </c>
       <c r="C135" s="21" t="s">
@@ -14222,8 +14299,8 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="45"/>
-      <c r="B136" s="45"/>
+      <c r="A136" s="48"/>
+      <c r="B136" s="48"/>
       <c r="C136" s="21" t="s">
         <v>62</v>
       </c>
@@ -15558,7 +15635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C673A10-5F13-473D-A898-8C90BDFF672E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0ACA0C-62F4-4F95-B486-BBA4E783C5F2}">
   <dimension ref="B5:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15993,19 +16070,11 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E74DF5F-89E0-4B3C-BA4A-46DEB97AF0DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08B917-ED31-4035-9881-D1461019D13E}">
   <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16417,7 +16486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9A2954-6D40-4EE4-A16C-A3EDA00E2A13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67494C0-F877-43D0-A893-C19EB974574E}">
   <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/test/연구비_집행관리.xlsx
+++ b/test/연구비_집행관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BB1\Desktop\업무\연구비자동화\KISS-\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E4E67C-4DB8-4A18-B8D6-431063DC786C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5927D942-A33B-46C1-896D-0EE0C9F436FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="156">
   <si>
-    <t>업데이트: 2025-09-10</t>
+    <t>업데이트: 2025-09-11</t>
   </si>
   <si>
     <t>2025 차세대 국가대표 스포츠과학지원 사업 예산 현황</t>
@@ -86,7 +86,7 @@
     <t>사업진행률</t>
   </si>
   <si>
-    <t>"53.0%"</t>
+    <t>"53.3%"</t>
   </si>
   <si>
     <t>핵심 성과 지표 (KPI)</t>
@@ -1142,7 +1142,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F788-4AEE-A29B-77EB080CF04B}"/>
+              <c16:uniqueId val="{00000000-7F1F-42DA-97FC-A065AD7BC145}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1298,7 +1298,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9F16-4880-B96E-7B3A7FCC4ADF}"/>
+              <c16:uniqueId val="{00000000-F020-47FC-BC74-8556610D6A04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1821,7 +1821,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2CB8-4A3A-B999-EE3CB7D86575}"/>
+              <c16:uniqueId val="{00000002-3613-4926-81A0-0B3BABB47357}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2009,7 +2009,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2CB8-4A3A-B999-EE3CB7D86575}"/>
+              <c16:uniqueId val="{00000003-3613-4926-81A0-0B3BABB47357}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2197,7 +2197,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2CB8-4A3A-B999-EE3CB7D86575}"/>
+              <c16:uniqueId val="{00000004-3613-4926-81A0-0B3BABB47357}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2382,7 +2382,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2CB8-4A3A-B999-EE3CB7D86575}"/>
+              <c16:uniqueId val="{00000005-3613-4926-81A0-0B3BABB47357}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2395,11 +2395,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1808028128"/>
-        <c:axId val="1808044928"/>
+        <c:axId val="726697824"/>
+        <c:axId val="726698784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1808028128"/>
+        <c:axId val="726697824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2497,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1808044928"/>
+        <c:crossAx val="726698784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2505,7 +2505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1808044928"/>
+        <c:axId val="726698784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,12 +2623,14 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1808028128"/>
+        <c:crossAx val="726697824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="404040"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2679,7 +2681,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="404040"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3201,7 +3203,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9C2-469C-B1D0-91505B65430A}"/>
+              <c16:uniqueId val="{00000000-717E-4F21-AC85-E726558F0620}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3374,7 +3376,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C9C2-469C-B1D0-91505B65430A}"/>
+              <c16:uniqueId val="{00000001-717E-4F21-AC85-E726558F0620}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3547,7 +3549,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C9C2-469C-B1D0-91505B65430A}"/>
+              <c16:uniqueId val="{00000002-717E-4F21-AC85-E726558F0620}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3720,7 +3722,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C9C2-469C-B1D0-91505B65430A}"/>
+              <c16:uniqueId val="{00000003-717E-4F21-AC85-E726558F0620}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3733,11 +3735,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1205376736"/>
-        <c:axId val="1205365696"/>
+        <c:axId val="1453890336"/>
+        <c:axId val="1453887456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1205376736"/>
+        <c:axId val="1453890336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3780,7 +3782,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1205365696"/>
+        <c:crossAx val="1453887456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3788,7 +3790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1205365696"/>
+        <c:axId val="1453887456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3839,7 +3841,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1205376736"/>
+        <c:crossAx val="1453890336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5104,7 +5106,7 @@
         <xdr:cNvPr id="4" name="차트 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C378A2-4A21-16B9-8057-E8C25370B9E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3ABB9D9-EF9A-4D52-E4AF-8673DA350048}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5142,7 +5144,7 @@
             <xdr:cNvPr id="5" name="DashboardYearSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79785D2-ACAE-C91E-33E8-EFE46980F916}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C424C7E-FBA8-D1FF-9723-B8805A05E80F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5220,7 +5222,7 @@
             <xdr:cNvPr id="6" name="DashboardBudgetItemSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD73C2C-4A33-1B27-8A5D-7FBEFFE5B57E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BB7F93-0CA5-EAA4-5E74-4A1B38FE5813}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5301,7 +5303,7 @@
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817536CD-04F0-7044-A126-7C3F85C0553F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A646A769-0C05-A99B-26EC-DF8656051B7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5339,7 +5341,7 @@
             <xdr:cNvPr id="3" name="BudgetItemSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FC7BF7-4917-9959-2C6C-69096D6ED7F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D44EF7E-3408-9664-D9AB-42C10F1774DC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5417,7 +5419,7 @@
             <xdr:cNvPr id="4" name="CharacteristicsSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9BAC93-AA97-D09D-2B60-0E7C66E2002F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F64F8E-8F7F-5532-9E6A-556408A3398F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5479,7 +5481,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45910.469465509261" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="84" xr:uid="{6B52EDDA-AEAA-47D5-A65C-4C71FBDFCF30}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45911.396365740744" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="84" xr:uid="{F962A986-7DB0-4481-B743-F23AA599EFEF}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C85" sheet="예산분석데이터"/>
   </cacheSource>
@@ -5523,14 +5525,14 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="2051505102"/>
+      <x14:pivotCacheDefinition pivotCacheId="983341496"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45910.469504513887" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="91" xr:uid="{1D3EA48C-D9A8-41B5-AC5F-DE595311E6C8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45911.396407060187" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="91" xr:uid="{B48CF430-9903-454A-A86E-B957509D0042}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C92" sheet="연도별예산데이터"/>
   </cacheSource>
@@ -5577,7 +5579,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1282541508"/>
+      <x14:pivotCacheDefinition pivotCacheId="663296073"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -6469,7 +6471,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA3ED715-F06F-48A7-AD30-F58AD213F319}" name="YearlyBudgetComparison" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{339CC0D9-6B7D-4141-8495-BF93E263A5A0}" name="YearlyBudgetComparison" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B5:F30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -6669,7 +6671,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD49E316-44DA-483D-A91A-D4AD88D29586}" name="BudgetAnalysisPivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED98B5E9-BADD-47D6-A31E-D3CF24C49A6A}" name="BudgetAnalysisPivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -6857,12 +6859,12 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목" xr10:uid="{F6CC4C4D-8D9F-42BA-A6DE-298BAA358CEB}" sourceName="예산과목">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목" xr10:uid="{300CC125-FE19-44F0-950D-71059338BB23}" sourceName="예산과목">
   <pivotTables>
     <pivotTable tabId="7" name="BudgetAnalysisPivot"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="2051505102">
+    <tabular pivotCacheId="983341496">
       <items count="21">
         <i x="17" s="1"/>
         <i x="18" s="1"/>
@@ -6892,12 +6894,12 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_특성" xr10:uid="{B8875753-D3A2-4CEF-8014-44B2BECA0BA1}" sourceName="특성">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_특성" xr10:uid="{5EB44671-F341-432D-993E-9E7A9E026486}" sourceName="특성">
   <pivotTables>
     <pivotTable tabId="7" name="BudgetAnalysisPivot"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="2051505102">
+    <tabular pivotCacheId="983341496">
       <items count="4">
         <i x="0" s="1"/>
         <i x="2" s="1"/>
@@ -6910,12 +6912,12 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_연도" xr10:uid="{5204D1A5-7648-433F-B99A-44015DBA5BD9}" sourceName="연도">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_연도" xr10:uid="{F4F9004C-CE2B-4007-8C3A-F5729C199D9C}" sourceName="연도">
   <pivotTables>
     <pivotTable tabId="10" name="YearlyBudgetComparison"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1282541508">
+    <tabular pivotCacheId="663296073">
       <items count="4">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
@@ -6928,12 +6930,12 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목1" xr10:uid="{4F4AE2A7-4262-4148-978D-6C963B5CF47F}" sourceName="예산과목">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목1" xr10:uid="{F284F036-B38A-4400-9A69-C0F28642CC46}" sourceName="예산과목">
   <pivotTables>
     <pivotTable tabId="10" name="YearlyBudgetComparison"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1282541508">
+    <tabular pivotCacheId="663296073">
       <items count="24">
         <i x="17" s="1"/>
         <i x="18" s="1"/>
@@ -6967,15 +6969,15 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="DashboardYearSlicer" xr10:uid="{3EA60C01-B3A2-477B-BE2D-7B6B2BB0DB17}" cache="슬라이서_연도" caption="연도 선택" rowHeight="273050"/>
-  <slicer name="DashboardBudgetItemSlicer" xr10:uid="{B84A09DA-BCFA-4CFC-8A93-D8C5761332B8}" cache="슬라이서_예산과목1" caption="예산과목 선택" rowHeight="273050"/>
+  <slicer name="DashboardYearSlicer" xr10:uid="{BAD187F6-24E7-4D18-9D11-35D502A5720C}" cache="슬라이서_연도" caption="연도 선택" rowHeight="273050"/>
+  <slicer name="DashboardBudgetItemSlicer" xr10:uid="{CAF94517-F8F6-44C7-B0F3-870B1F4D1D59}" cache="슬라이서_예산과목1" caption="예산과목 선택" rowHeight="273050"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="BudgetItemSlicer" xr10:uid="{F4E35D94-06F1-4217-B687-621AB791D3BB}" cache="슬라이서_예산과목" caption="예산과목 선택" rowHeight="273050"/>
-  <slicer name="CharacteristicsSlicer" xr10:uid="{878B7F34-2717-4294-81C7-54A40AD24DC1}" cache="슬라이서_특성" caption="측정항목 선택" rowHeight="273050"/>
+  <slicer name="BudgetItemSlicer" xr10:uid="{B4FDD841-63A1-4D63-A907-137A35C98FE3}" cache="슬라이서_예산과목" caption="예산과목 선택" rowHeight="273050"/>
+  <slicer name="CharacteristicsSlicer" xr10:uid="{7109224E-43D1-4D1A-A3E2-DA03CCB47B97}" cache="슬라이서_특성" caption="측정항목 선택" rowHeight="273050"/>
 </slicers>
 </file>
 
@@ -7264,9 +7266,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V300"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A45" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -9138,6 +9140,5790 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+    </row>
+    <row r="110" spans="1:22">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+    </row>
+    <row r="115" spans="1:22">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+    </row>
+    <row r="129" spans="1:22">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+    </row>
+    <row r="130" spans="1:22">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+    </row>
+    <row r="131" spans="1:22">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+    </row>
+    <row r="132" spans="1:22">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="1"/>
+    </row>
+    <row r="133" spans="1:22">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+    </row>
+    <row r="134" spans="1:22">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+    </row>
+    <row r="135" spans="1:22">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
+    </row>
+    <row r="136" spans="1:22">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
+    </row>
+    <row r="137" spans="1:22">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+    </row>
+    <row r="138" spans="1:22">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+    </row>
+    <row r="139" spans="1:22">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="1"/>
+    </row>
+    <row r="140" spans="1:22">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
+    </row>
+    <row r="141" spans="1:22">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
+      <c r="U141" s="1"/>
+      <c r="V141" s="1"/>
+    </row>
+    <row r="142" spans="1:22">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="1"/>
+    </row>
+    <row r="143" spans="1:22">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+    </row>
+    <row r="144" spans="1:22">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+    </row>
+    <row r="145" spans="1:22">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+    </row>
+    <row r="146" spans="1:22">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+    </row>
+    <row r="147" spans="1:22">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+    </row>
+    <row r="148" spans="1:22">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+    </row>
+    <row r="149" spans="1:22">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+    </row>
+    <row r="150" spans="1:22">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+    </row>
+    <row r="151" spans="1:22">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+    </row>
+    <row r="152" spans="1:22">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+    </row>
+    <row r="153" spans="1:22">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+    </row>
+    <row r="154" spans="1:22">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="1"/>
+    </row>
+    <row r="155" spans="1:22">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
+    </row>
+    <row r="156" spans="1:22">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+    </row>
+    <row r="157" spans="1:22">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+    </row>
+    <row r="158" spans="1:22">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="V158" s="1"/>
+    </row>
+    <row r="159" spans="1:22">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+    </row>
+    <row r="160" spans="1:22">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="1"/>
+    </row>
+    <row r="161" spans="1:22">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="1"/>
+    </row>
+    <row r="162" spans="1:22">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="1"/>
+    </row>
+    <row r="163" spans="1:22">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
+    </row>
+    <row r="164" spans="1:22">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="1"/>
+    </row>
+    <row r="165" spans="1:22">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="T165" s="1"/>
+      <c r="U165" s="1"/>
+      <c r="V165" s="1"/>
+    </row>
+    <row r="166" spans="1:22">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+      <c r="U166" s="1"/>
+      <c r="V166" s="1"/>
+    </row>
+    <row r="167" spans="1:22">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="1"/>
+    </row>
+    <row r="168" spans="1:22">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
+      <c r="U168" s="1"/>
+      <c r="V168" s="1"/>
+    </row>
+    <row r="169" spans="1:22">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
+      <c r="U169" s="1"/>
+      <c r="V169" s="1"/>
+    </row>
+    <row r="170" spans="1:22">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
+      <c r="V170" s="1"/>
+    </row>
+    <row r="171" spans="1:22">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1"/>
+      <c r="U171" s="1"/>
+      <c r="V171" s="1"/>
+    </row>
+    <row r="172" spans="1:22">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+      <c r="T172" s="1"/>
+      <c r="U172" s="1"/>
+      <c r="V172" s="1"/>
+    </row>
+    <row r="173" spans="1:22">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
+      <c r="U173" s="1"/>
+      <c r="V173" s="1"/>
+    </row>
+    <row r="174" spans="1:22">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="T174" s="1"/>
+      <c r="U174" s="1"/>
+      <c r="V174" s="1"/>
+    </row>
+    <row r="175" spans="1:22">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="1"/>
+    </row>
+    <row r="176" spans="1:22">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
+    </row>
+    <row r="177" spans="1:22">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+    </row>
+    <row r="178" spans="1:22">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
+      <c r="U178" s="1"/>
+      <c r="V178" s="1"/>
+    </row>
+    <row r="179" spans="1:22">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+      <c r="U179" s="1"/>
+      <c r="V179" s="1"/>
+    </row>
+    <row r="180" spans="1:22">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
+      <c r="U180" s="1"/>
+      <c r="V180" s="1"/>
+    </row>
+    <row r="181" spans="1:22">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
+      <c r="U181" s="1"/>
+      <c r="V181" s="1"/>
+    </row>
+    <row r="182" spans="1:22">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
+      <c r="U182" s="1"/>
+      <c r="V182" s="1"/>
+    </row>
+    <row r="183" spans="1:22">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
+      <c r="T183" s="1"/>
+      <c r="U183" s="1"/>
+      <c r="V183" s="1"/>
+    </row>
+    <row r="184" spans="1:22">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1"/>
+      <c r="U184" s="1"/>
+      <c r="V184" s="1"/>
+    </row>
+    <row r="185" spans="1:22">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
+      <c r="U185" s="1"/>
+      <c r="V185" s="1"/>
+    </row>
+    <row r="186" spans="1:22">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+      <c r="T186" s="1"/>
+      <c r="U186" s="1"/>
+      <c r="V186" s="1"/>
+    </row>
+    <row r="187" spans="1:22">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1"/>
+      <c r="U187" s="1"/>
+      <c r="V187" s="1"/>
+    </row>
+    <row r="188" spans="1:22">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
+      <c r="V188" s="1"/>
+    </row>
+    <row r="189" spans="1:22">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="T189" s="1"/>
+      <c r="U189" s="1"/>
+      <c r="V189" s="1"/>
+    </row>
+    <row r="190" spans="1:22">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
+      <c r="T190" s="1"/>
+      <c r="U190" s="1"/>
+      <c r="V190" s="1"/>
+    </row>
+    <row r="191" spans="1:22">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+      <c r="T191" s="1"/>
+      <c r="U191" s="1"/>
+      <c r="V191" s="1"/>
+    </row>
+    <row r="192" spans="1:22">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="T192" s="1"/>
+      <c r="U192" s="1"/>
+      <c r="V192" s="1"/>
+    </row>
+    <row r="193" spans="1:22">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+      <c r="U193" s="1"/>
+      <c r="V193" s="1"/>
+    </row>
+    <row r="194" spans="1:22">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+    </row>
+    <row r="195" spans="1:22">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+      <c r="U195" s="1"/>
+      <c r="V195" s="1"/>
+    </row>
+    <row r="196" spans="1:22">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+    </row>
+    <row r="197" spans="1:22">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="1"/>
+    </row>
+    <row r="198" spans="1:22">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
+      <c r="U198" s="1"/>
+      <c r="V198" s="1"/>
+    </row>
+    <row r="199" spans="1:22">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="1"/>
+    </row>
+    <row r="200" spans="1:22">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
+      <c r="U200" s="1"/>
+      <c r="V200" s="1"/>
+    </row>
+    <row r="201" spans="1:22">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+      <c r="V201" s="1"/>
+    </row>
+    <row r="202" spans="1:22">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="1"/>
+    </row>
+    <row r="203" spans="1:22">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+      <c r="V203" s="1"/>
+    </row>
+    <row r="204" spans="1:22">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+      <c r="V204" s="1"/>
+    </row>
+    <row r="205" spans="1:22">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+      <c r="U205" s="1"/>
+      <c r="V205" s="1"/>
+    </row>
+    <row r="206" spans="1:22">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
+      <c r="V206" s="1"/>
+    </row>
+    <row r="207" spans="1:22">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+      <c r="U207" s="1"/>
+      <c r="V207" s="1"/>
+    </row>
+    <row r="208" spans="1:22">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+      <c r="U208" s="1"/>
+      <c r="V208" s="1"/>
+    </row>
+    <row r="209" spans="1:22">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+      <c r="V209" s="1"/>
+    </row>
+    <row r="210" spans="1:22">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+      <c r="V210" s="1"/>
+    </row>
+    <row r="211" spans="1:22">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+      <c r="V211" s="1"/>
+    </row>
+    <row r="212" spans="1:22">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+      <c r="V212" s="1"/>
+    </row>
+    <row r="213" spans="1:22">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+      <c r="U213" s="1"/>
+      <c r="V213" s="1"/>
+    </row>
+    <row r="214" spans="1:22">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="1"/>
+    </row>
+    <row r="215" spans="1:22">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+      <c r="V215" s="1"/>
+    </row>
+    <row r="216" spans="1:22">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+      <c r="V216" s="1"/>
+    </row>
+    <row r="217" spans="1:22">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+      <c r="V217" s="1"/>
+    </row>
+    <row r="218" spans="1:22">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+      <c r="V218" s="1"/>
+    </row>
+    <row r="219" spans="1:22">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+      <c r="V219" s="1"/>
+    </row>
+    <row r="220" spans="1:22">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="1"/>
+    </row>
+    <row r="221" spans="1:22">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="1"/>
+    </row>
+    <row r="222" spans="1:22">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+      <c r="U222" s="1"/>
+      <c r="V222" s="1"/>
+    </row>
+    <row r="223" spans="1:22">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+      <c r="U223" s="1"/>
+      <c r="V223" s="1"/>
+    </row>
+    <row r="224" spans="1:22">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+      <c r="U224" s="1"/>
+      <c r="V224" s="1"/>
+    </row>
+    <row r="225" spans="1:22">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+      <c r="U225" s="1"/>
+      <c r="V225" s="1"/>
+    </row>
+    <row r="226" spans="1:22">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+      <c r="U226" s="1"/>
+      <c r="V226" s="1"/>
+    </row>
+    <row r="227" spans="1:22">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="1"/>
+    </row>
+    <row r="228" spans="1:22">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+      <c r="U228" s="1"/>
+      <c r="V228" s="1"/>
+    </row>
+    <row r="229" spans="1:22">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+      <c r="U229" s="1"/>
+      <c r="V229" s="1"/>
+    </row>
+    <row r="230" spans="1:22">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+      <c r="V230" s="1"/>
+    </row>
+    <row r="231" spans="1:22">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+    </row>
+    <row r="232" spans="1:22">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+    </row>
+    <row r="233" spans="1:22">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+    </row>
+    <row r="234" spans="1:22">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+    </row>
+    <row r="235" spans="1:22">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+    </row>
+    <row r="236" spans="1:22">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="1"/>
+    </row>
+    <row r="237" spans="1:22">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+      <c r="V237" s="1"/>
+    </row>
+    <row r="238" spans="1:22">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+      <c r="P238" s="1"/>
+      <c r="Q238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="S238" s="1"/>
+      <c r="T238" s="1"/>
+      <c r="U238" s="1"/>
+      <c r="V238" s="1"/>
+    </row>
+    <row r="239" spans="1:22">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="1"/>
+    </row>
+    <row r="240" spans="1:22">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
+      <c r="U240" s="1"/>
+      <c r="V240" s="1"/>
+    </row>
+    <row r="241" spans="1:22">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
+      <c r="U241" s="1"/>
+      <c r="V241" s="1"/>
+    </row>
+    <row r="242" spans="1:22">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="1"/>
+    </row>
+    <row r="243" spans="1:22">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
+      <c r="U243" s="1"/>
+      <c r="V243" s="1"/>
+    </row>
+    <row r="244" spans="1:22">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="Q244" s="1"/>
+      <c r="R244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="T244" s="1"/>
+      <c r="U244" s="1"/>
+      <c r="V244" s="1"/>
+    </row>
+    <row r="245" spans="1:22">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="P245" s="1"/>
+      <c r="Q245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="T245" s="1"/>
+      <c r="U245" s="1"/>
+      <c r="V245" s="1"/>
+    </row>
+    <row r="246" spans="1:22">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="P246" s="1"/>
+      <c r="Q246" s="1"/>
+      <c r="R246" s="1"/>
+      <c r="S246" s="1"/>
+      <c r="T246" s="1"/>
+      <c r="U246" s="1"/>
+      <c r="V246" s="1"/>
+    </row>
+    <row r="247" spans="1:22">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
+      <c r="Q247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="T247" s="1"/>
+      <c r="U247" s="1"/>
+      <c r="V247" s="1"/>
+    </row>
+    <row r="248" spans="1:22">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="P248" s="1"/>
+      <c r="Q248" s="1"/>
+      <c r="R248" s="1"/>
+      <c r="S248" s="1"/>
+      <c r="T248" s="1"/>
+      <c r="U248" s="1"/>
+      <c r="V248" s="1"/>
+    </row>
+    <row r="249" spans="1:22">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+      <c r="P249" s="1"/>
+      <c r="Q249" s="1"/>
+      <c r="R249" s="1"/>
+      <c r="S249" s="1"/>
+      <c r="T249" s="1"/>
+      <c r="U249" s="1"/>
+      <c r="V249" s="1"/>
+    </row>
+    <row r="250" spans="1:22">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+      <c r="P250" s="1"/>
+      <c r="Q250" s="1"/>
+      <c r="R250" s="1"/>
+      <c r="S250" s="1"/>
+      <c r="T250" s="1"/>
+      <c r="U250" s="1"/>
+      <c r="V250" s="1"/>
+    </row>
+    <row r="251" spans="1:22">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="Q251" s="1"/>
+      <c r="R251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="T251" s="1"/>
+      <c r="U251" s="1"/>
+      <c r="V251" s="1"/>
+    </row>
+    <row r="252" spans="1:22">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+      <c r="P252" s="1"/>
+      <c r="Q252" s="1"/>
+      <c r="R252" s="1"/>
+      <c r="S252" s="1"/>
+      <c r="T252" s="1"/>
+      <c r="U252" s="1"/>
+      <c r="V252" s="1"/>
+    </row>
+    <row r="253" spans="1:22">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="P253" s="1"/>
+      <c r="Q253" s="1"/>
+      <c r="R253" s="1"/>
+      <c r="S253" s="1"/>
+      <c r="T253" s="1"/>
+      <c r="U253" s="1"/>
+      <c r="V253" s="1"/>
+    </row>
+    <row r="254" spans="1:22">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+      <c r="P254" s="1"/>
+      <c r="Q254" s="1"/>
+      <c r="R254" s="1"/>
+      <c r="S254" s="1"/>
+      <c r="T254" s="1"/>
+      <c r="U254" s="1"/>
+      <c r="V254" s="1"/>
+    </row>
+    <row r="255" spans="1:22">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+      <c r="P255" s="1"/>
+      <c r="Q255" s="1"/>
+      <c r="R255" s="1"/>
+      <c r="S255" s="1"/>
+      <c r="T255" s="1"/>
+      <c r="U255" s="1"/>
+      <c r="V255" s="1"/>
+    </row>
+    <row r="256" spans="1:22">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+      <c r="P256" s="1"/>
+      <c r="Q256" s="1"/>
+      <c r="R256" s="1"/>
+      <c r="S256" s="1"/>
+      <c r="T256" s="1"/>
+      <c r="U256" s="1"/>
+      <c r="V256" s="1"/>
+    </row>
+    <row r="257" spans="1:22">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+      <c r="P257" s="1"/>
+      <c r="Q257" s="1"/>
+      <c r="R257" s="1"/>
+      <c r="S257" s="1"/>
+      <c r="T257" s="1"/>
+      <c r="U257" s="1"/>
+      <c r="V257" s="1"/>
+    </row>
+    <row r="258" spans="1:22">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="T258" s="1"/>
+      <c r="U258" s="1"/>
+      <c r="V258" s="1"/>
+    </row>
+    <row r="259" spans="1:22">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1"/>
+      <c r="Q259" s="1"/>
+      <c r="R259" s="1"/>
+      <c r="S259" s="1"/>
+      <c r="T259" s="1"/>
+      <c r="U259" s="1"/>
+      <c r="V259" s="1"/>
+    </row>
+    <row r="260" spans="1:22">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="P260" s="1"/>
+      <c r="Q260" s="1"/>
+      <c r="R260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="T260" s="1"/>
+      <c r="U260" s="1"/>
+      <c r="V260" s="1"/>
+    </row>
+    <row r="261" spans="1:22">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="1"/>
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
+      <c r="Q261" s="1"/>
+      <c r="R261" s="1"/>
+      <c r="S261" s="1"/>
+      <c r="T261" s="1"/>
+      <c r="U261" s="1"/>
+      <c r="V261" s="1"/>
+    </row>
+    <row r="262" spans="1:22">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
+      <c r="R262" s="1"/>
+      <c r="S262" s="1"/>
+      <c r="T262" s="1"/>
+      <c r="U262" s="1"/>
+      <c r="V262" s="1"/>
+    </row>
+    <row r="263" spans="1:22">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1"/>
+      <c r="L263" s="1"/>
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+      <c r="P263" s="1"/>
+      <c r="Q263" s="1"/>
+      <c r="R263" s="1"/>
+      <c r="S263" s="1"/>
+      <c r="T263" s="1"/>
+      <c r="U263" s="1"/>
+      <c r="V263" s="1"/>
+    </row>
+    <row r="264" spans="1:22">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1"/>
+      <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="P264" s="1"/>
+      <c r="Q264" s="1"/>
+      <c r="R264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="T264" s="1"/>
+      <c r="U264" s="1"/>
+      <c r="V264" s="1"/>
+    </row>
+    <row r="265" spans="1:22">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1"/>
+      <c r="K265" s="1"/>
+      <c r="L265" s="1"/>
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+      <c r="P265" s="1"/>
+      <c r="Q265" s="1"/>
+      <c r="R265" s="1"/>
+      <c r="S265" s="1"/>
+      <c r="T265" s="1"/>
+      <c r="U265" s="1"/>
+      <c r="V265" s="1"/>
+    </row>
+    <row r="266" spans="1:22">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+      <c r="J266" s="1"/>
+      <c r="K266" s="1"/>
+      <c r="L266" s="1"/>
+      <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="P266" s="1"/>
+      <c r="Q266" s="1"/>
+      <c r="R266" s="1"/>
+      <c r="S266" s="1"/>
+      <c r="T266" s="1"/>
+      <c r="U266" s="1"/>
+      <c r="V266" s="1"/>
+    </row>
+    <row r="267" spans="1:22">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1"/>
+      <c r="L267" s="1"/>
+      <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+      <c r="P267" s="1"/>
+      <c r="Q267" s="1"/>
+      <c r="R267" s="1"/>
+      <c r="S267" s="1"/>
+      <c r="T267" s="1"/>
+      <c r="U267" s="1"/>
+      <c r="V267" s="1"/>
+    </row>
+    <row r="268" spans="1:22">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1"/>
+      <c r="L268" s="1"/>
+      <c r="M268" s="1"/>
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
+      <c r="P268" s="1"/>
+      <c r="Q268" s="1"/>
+      <c r="R268" s="1"/>
+      <c r="S268" s="1"/>
+      <c r="T268" s="1"/>
+      <c r="U268" s="1"/>
+      <c r="V268" s="1"/>
+    </row>
+    <row r="269" spans="1:22">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+      <c r="L269" s="1"/>
+      <c r="M269" s="1"/>
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+      <c r="P269" s="1"/>
+      <c r="Q269" s="1"/>
+      <c r="R269" s="1"/>
+      <c r="S269" s="1"/>
+      <c r="T269" s="1"/>
+      <c r="U269" s="1"/>
+      <c r="V269" s="1"/>
+    </row>
+    <row r="270" spans="1:22">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="1"/>
+      <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+      <c r="P270" s="1"/>
+      <c r="Q270" s="1"/>
+      <c r="R270" s="1"/>
+      <c r="S270" s="1"/>
+      <c r="T270" s="1"/>
+      <c r="U270" s="1"/>
+      <c r="V270" s="1"/>
+    </row>
+    <row r="271" spans="1:22">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
+      <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+      <c r="P271" s="1"/>
+      <c r="Q271" s="1"/>
+      <c r="R271" s="1"/>
+      <c r="S271" s="1"/>
+      <c r="T271" s="1"/>
+      <c r="U271" s="1"/>
+      <c r="V271" s="1"/>
+    </row>
+    <row r="272" spans="1:22">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+      <c r="Q272" s="1"/>
+      <c r="R272" s="1"/>
+      <c r="S272" s="1"/>
+      <c r="T272" s="1"/>
+      <c r="U272" s="1"/>
+      <c r="V272" s="1"/>
+    </row>
+    <row r="273" spans="1:22">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+      <c r="L273" s="1"/>
+      <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+      <c r="P273" s="1"/>
+      <c r="Q273" s="1"/>
+      <c r="R273" s="1"/>
+      <c r="S273" s="1"/>
+      <c r="T273" s="1"/>
+      <c r="U273" s="1"/>
+      <c r="V273" s="1"/>
+    </row>
+    <row r="274" spans="1:22">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1"/>
+      <c r="K274" s="1"/>
+      <c r="L274" s="1"/>
+      <c r="M274" s="1"/>
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+      <c r="P274" s="1"/>
+      <c r="Q274" s="1"/>
+      <c r="R274" s="1"/>
+      <c r="S274" s="1"/>
+      <c r="T274" s="1"/>
+      <c r="U274" s="1"/>
+      <c r="V274" s="1"/>
+    </row>
+    <row r="275" spans="1:22">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+      <c r="J275" s="1"/>
+      <c r="K275" s="1"/>
+      <c r="L275" s="1"/>
+      <c r="M275" s="1"/>
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+      <c r="P275" s="1"/>
+      <c r="Q275" s="1"/>
+      <c r="R275" s="1"/>
+      <c r="S275" s="1"/>
+      <c r="T275" s="1"/>
+      <c r="U275" s="1"/>
+      <c r="V275" s="1"/>
+    </row>
+    <row r="276" spans="1:22">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1"/>
+      <c r="K276" s="1"/>
+      <c r="L276" s="1"/>
+      <c r="M276" s="1"/>
+      <c r="N276" s="1"/>
+      <c r="O276" s="1"/>
+      <c r="P276" s="1"/>
+      <c r="Q276" s="1"/>
+      <c r="R276" s="1"/>
+      <c r="S276" s="1"/>
+      <c r="T276" s="1"/>
+      <c r="U276" s="1"/>
+      <c r="V276" s="1"/>
+    </row>
+    <row r="277" spans="1:22">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
+      <c r="J277" s="1"/>
+      <c r="K277" s="1"/>
+      <c r="L277" s="1"/>
+      <c r="M277" s="1"/>
+      <c r="N277" s="1"/>
+      <c r="O277" s="1"/>
+      <c r="P277" s="1"/>
+      <c r="Q277" s="1"/>
+      <c r="R277" s="1"/>
+      <c r="S277" s="1"/>
+      <c r="T277" s="1"/>
+      <c r="U277" s="1"/>
+      <c r="V277" s="1"/>
+    </row>
+    <row r="278" spans="1:22">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+      <c r="J278" s="1"/>
+      <c r="K278" s="1"/>
+      <c r="L278" s="1"/>
+      <c r="M278" s="1"/>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+      <c r="P278" s="1"/>
+      <c r="Q278" s="1"/>
+      <c r="R278" s="1"/>
+      <c r="S278" s="1"/>
+      <c r="T278" s="1"/>
+      <c r="U278" s="1"/>
+      <c r="V278" s="1"/>
+    </row>
+    <row r="279" spans="1:22">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+      <c r="J279" s="1"/>
+      <c r="K279" s="1"/>
+      <c r="L279" s="1"/>
+      <c r="M279" s="1"/>
+      <c r="N279" s="1"/>
+      <c r="O279" s="1"/>
+      <c r="P279" s="1"/>
+      <c r="Q279" s="1"/>
+      <c r="R279" s="1"/>
+      <c r="S279" s="1"/>
+      <c r="T279" s="1"/>
+      <c r="U279" s="1"/>
+      <c r="V279" s="1"/>
+    </row>
+    <row r="280" spans="1:22">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
+      <c r="J280" s="1"/>
+      <c r="K280" s="1"/>
+      <c r="L280" s="1"/>
+      <c r="M280" s="1"/>
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+      <c r="P280" s="1"/>
+      <c r="Q280" s="1"/>
+      <c r="R280" s="1"/>
+      <c r="S280" s="1"/>
+      <c r="T280" s="1"/>
+      <c r="U280" s="1"/>
+      <c r="V280" s="1"/>
+    </row>
+    <row r="281" spans="1:22">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+      <c r="L281" s="1"/>
+      <c r="M281" s="1"/>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+      <c r="P281" s="1"/>
+      <c r="Q281" s="1"/>
+      <c r="R281" s="1"/>
+      <c r="S281" s="1"/>
+      <c r="T281" s="1"/>
+      <c r="U281" s="1"/>
+      <c r="V281" s="1"/>
+    </row>
+    <row r="282" spans="1:22">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+      <c r="M282" s="1"/>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+      <c r="P282" s="1"/>
+      <c r="Q282" s="1"/>
+      <c r="R282" s="1"/>
+      <c r="S282" s="1"/>
+      <c r="T282" s="1"/>
+      <c r="U282" s="1"/>
+      <c r="V282" s="1"/>
+    </row>
+    <row r="283" spans="1:22">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="I283" s="1"/>
+      <c r="J283" s="1"/>
+      <c r="K283" s="1"/>
+      <c r="L283" s="1"/>
+      <c r="M283" s="1"/>
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+      <c r="P283" s="1"/>
+      <c r="Q283" s="1"/>
+      <c r="R283" s="1"/>
+      <c r="S283" s="1"/>
+      <c r="T283" s="1"/>
+      <c r="U283" s="1"/>
+      <c r="V283" s="1"/>
+    </row>
+    <row r="284" spans="1:22">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
+      <c r="J284" s="1"/>
+      <c r="K284" s="1"/>
+      <c r="L284" s="1"/>
+      <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+      <c r="P284" s="1"/>
+      <c r="Q284" s="1"/>
+      <c r="R284" s="1"/>
+      <c r="S284" s="1"/>
+      <c r="T284" s="1"/>
+      <c r="U284" s="1"/>
+      <c r="V284" s="1"/>
+    </row>
+    <row r="285" spans="1:22">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
+      <c r="J285" s="1"/>
+      <c r="K285" s="1"/>
+      <c r="L285" s="1"/>
+      <c r="M285" s="1"/>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+      <c r="P285" s="1"/>
+      <c r="Q285" s="1"/>
+      <c r="R285" s="1"/>
+      <c r="S285" s="1"/>
+      <c r="T285" s="1"/>
+      <c r="U285" s="1"/>
+      <c r="V285" s="1"/>
+    </row>
+    <row r="286" spans="1:22">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1"/>
+      <c r="L286" s="1"/>
+      <c r="M286" s="1"/>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+      <c r="P286" s="1"/>
+      <c r="Q286" s="1"/>
+      <c r="R286" s="1"/>
+      <c r="S286" s="1"/>
+      <c r="T286" s="1"/>
+      <c r="U286" s="1"/>
+      <c r="V286" s="1"/>
+    </row>
+    <row r="287" spans="1:22">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+      <c r="P287" s="1"/>
+      <c r="Q287" s="1"/>
+      <c r="R287" s="1"/>
+      <c r="S287" s="1"/>
+      <c r="T287" s="1"/>
+      <c r="U287" s="1"/>
+      <c r="V287" s="1"/>
+    </row>
+    <row r="288" spans="1:22">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+      <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+      <c r="P288" s="1"/>
+      <c r="Q288" s="1"/>
+      <c r="R288" s="1"/>
+      <c r="S288" s="1"/>
+      <c r="T288" s="1"/>
+      <c r="U288" s="1"/>
+      <c r="V288" s="1"/>
+    </row>
+    <row r="289" spans="1:22">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
+      <c r="J289" s="1"/>
+      <c r="K289" s="1"/>
+      <c r="L289" s="1"/>
+      <c r="M289" s="1"/>
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+      <c r="P289" s="1"/>
+      <c r="Q289" s="1"/>
+      <c r="R289" s="1"/>
+      <c r="S289" s="1"/>
+      <c r="T289" s="1"/>
+      <c r="U289" s="1"/>
+      <c r="V289" s="1"/>
+    </row>
+    <row r="290" spans="1:22">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
+      <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+      <c r="P290" s="1"/>
+      <c r="Q290" s="1"/>
+      <c r="R290" s="1"/>
+      <c r="S290" s="1"/>
+      <c r="T290" s="1"/>
+      <c r="U290" s="1"/>
+      <c r="V290" s="1"/>
+    </row>
+    <row r="291" spans="1:22">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="1"/>
+      <c r="M291" s="1"/>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+      <c r="P291" s="1"/>
+      <c r="Q291" s="1"/>
+      <c r="R291" s="1"/>
+      <c r="S291" s="1"/>
+      <c r="T291" s="1"/>
+      <c r="U291" s="1"/>
+      <c r="V291" s="1"/>
+    </row>
+    <row r="292" spans="1:22">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1"/>
+      <c r="L292" s="1"/>
+      <c r="M292" s="1"/>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+      <c r="P292" s="1"/>
+      <c r="Q292" s="1"/>
+      <c r="R292" s="1"/>
+      <c r="S292" s="1"/>
+      <c r="T292" s="1"/>
+      <c r="U292" s="1"/>
+      <c r="V292" s="1"/>
+    </row>
+    <row r="293" spans="1:22">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+      <c r="K293" s="1"/>
+      <c r="L293" s="1"/>
+      <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+      <c r="P293" s="1"/>
+      <c r="Q293" s="1"/>
+      <c r="R293" s="1"/>
+      <c r="S293" s="1"/>
+      <c r="T293" s="1"/>
+      <c r="U293" s="1"/>
+      <c r="V293" s="1"/>
+    </row>
+    <row r="294" spans="1:22">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+      <c r="K294" s="1"/>
+      <c r="L294" s="1"/>
+      <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+      <c r="P294" s="1"/>
+      <c r="Q294" s="1"/>
+      <c r="R294" s="1"/>
+      <c r="S294" s="1"/>
+      <c r="T294" s="1"/>
+      <c r="U294" s="1"/>
+      <c r="V294" s="1"/>
+    </row>
+    <row r="295" spans="1:22">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+      <c r="K295" s="1"/>
+      <c r="L295" s="1"/>
+      <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+      <c r="P295" s="1"/>
+      <c r="Q295" s="1"/>
+      <c r="R295" s="1"/>
+      <c r="S295" s="1"/>
+      <c r="T295" s="1"/>
+      <c r="U295" s="1"/>
+      <c r="V295" s="1"/>
+    </row>
+    <row r="296" spans="1:22">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
+      <c r="K296" s="1"/>
+      <c r="L296" s="1"/>
+      <c r="M296" s="1"/>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+      <c r="P296" s="1"/>
+      <c r="Q296" s="1"/>
+      <c r="R296" s="1"/>
+      <c r="S296" s="1"/>
+      <c r="T296" s="1"/>
+      <c r="U296" s="1"/>
+      <c r="V296" s="1"/>
+    </row>
+    <row r="297" spans="1:22">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+      <c r="J297" s="1"/>
+      <c r="K297" s="1"/>
+      <c r="L297" s="1"/>
+      <c r="M297" s="1"/>
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+      <c r="P297" s="1"/>
+      <c r="Q297" s="1"/>
+      <c r="R297" s="1"/>
+      <c r="S297" s="1"/>
+      <c r="T297" s="1"/>
+      <c r="U297" s="1"/>
+      <c r="V297" s="1"/>
+    </row>
+    <row r="298" spans="1:22">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
+      <c r="J298" s="1"/>
+      <c r="K298" s="1"/>
+      <c r="L298" s="1"/>
+      <c r="M298" s="1"/>
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+      <c r="P298" s="1"/>
+      <c r="Q298" s="1"/>
+      <c r="R298" s="1"/>
+      <c r="S298" s="1"/>
+      <c r="T298" s="1"/>
+      <c r="U298" s="1"/>
+      <c r="V298" s="1"/>
+    </row>
+    <row r="299" spans="1:22">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
+      <c r="J299" s="1"/>
+      <c r="K299" s="1"/>
+      <c r="L299" s="1"/>
+      <c r="M299" s="1"/>
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+      <c r="P299" s="1"/>
+      <c r="Q299" s="1"/>
+      <c r="R299" s="1"/>
+      <c r="S299" s="1"/>
+      <c r="T299" s="1"/>
+      <c r="U299" s="1"/>
+      <c r="V299" s="1"/>
+    </row>
+    <row r="300" spans="1:22">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+      <c r="L300" s="1"/>
+      <c r="M300" s="1"/>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+      <c r="P300" s="1"/>
+      <c r="Q300" s="1"/>
+      <c r="R300" s="1"/>
+      <c r="S300" s="1"/>
+      <c r="T300" s="1"/>
+      <c r="U300" s="1"/>
+      <c r="V300" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -9168,7 +14954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BBE7E-1815-4BBE-91A5-050434244AB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481DDBCD-1882-488F-88FD-3EB349FAD548}">
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -15635,7 +21421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0ACA0C-62F4-4F95-B486-BBA4E783C5F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EE2294-F8BF-432D-8663-E83B343D3C37}">
   <dimension ref="B5:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16074,7 +21860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08B917-ED31-4035-9881-D1461019D13E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADC13D5-FEF9-4B1E-9F65-9C5297A6B42D}">
   <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16486,7 +22272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67494C0-F877-43D0-A893-C19EB974574E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B5C5C6-D8D6-4B36-B64E-EF9ACF536E41}">
   <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/test/연구비_집행관리.xlsx
+++ b/test/연구비_집행관리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BB1\Desktop\업무\연구비자동화\KISS-\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5927D942-A33B-46C1-896D-0EE0C9F436FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BEBF3D-986F-40EA-B44F-6C0737AC1541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,9 @@
     <sheet name="연구비" sheetId="4" r:id="rId4"/>
     <sheet name="집행관리(사업비)" sheetId="5" r:id="rId5"/>
     <sheet name="집행관리(연구비)" sheetId="6" r:id="rId6"/>
-    <sheet name="연도별예산비교" sheetId="10" r:id="rId7"/>
-    <sheet name="예산분석" sheetId="7" r:id="rId8"/>
-    <sheet name="연도별예산데이터" sheetId="9" r:id="rId9"/>
-    <sheet name="예산분석데이터" sheetId="8" r:id="rId10"/>
+    <sheet name="예산분석" sheetId="7" r:id="rId7"/>
+    <sheet name="연도별예산데이터" sheetId="9" r:id="rId8"/>
+    <sheet name="예산분석데이터" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="슬라이서_연도">#N/A</definedName>
@@ -32,16 +31,16 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
-    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId12"/>
         <x14:slicerCache r:id="rId13"/>
         <x14:slicerCache r:id="rId14"/>
         <x14:slicerCache r:id="rId15"/>
-        <x14:slicerCache r:id="rId16"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1142,7 +1141,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F1F-42DA-97FC-A065AD7BC145}"/>
+              <c16:uniqueId val="{00000000-3DD4-4F76-9ADB-426E7DB0426A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1298,7 +1297,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F020-47FC-BC74-8556610D6A04}"/>
+              <c16:uniqueId val="{00000000-81A3-41E5-832D-9E035AADD9B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1345,7 +1344,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[연구비_집행관리.xlsx]연도별예산비교!YearlyBudgetComparison</c:name>
+    <c:name>[연구비_집행관리.xlsx]연도별예산데이터!YearlyBudgetComparison</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1642,7 +1641,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>연도별예산비교!$C$5:$C$6</c:f>
+              <c:f>연도별예산데이터!$F$5:$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1663,7 +1662,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>연도별예산비교!$B$7:$B$30</c:f>
+              <c:f>연도별예산데이터!$E$7:$E$30</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -1743,7 +1742,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>연도별예산비교!$C$7:$C$30</c:f>
+              <c:f>연도별예산데이터!$F$7:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1821,7 +1820,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3613-4926-81A0-0B3BABB47357}"/>
+              <c16:uniqueId val="{00000002-FEE5-4217-84D6-560742736381}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1830,7 +1829,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>연도별예산비교!$D$5:$D$6</c:f>
+              <c:f>연도별예산데이터!$G$5:$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1851,7 +1850,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>연도별예산비교!$B$7:$B$30</c:f>
+              <c:f>연도별예산데이터!$E$7:$E$30</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -1931,7 +1930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>연도별예산비교!$D$7:$D$30</c:f>
+              <c:f>연도별예산데이터!$G$7:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2009,7 +2008,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3613-4926-81A0-0B3BABB47357}"/>
+              <c16:uniqueId val="{00000003-FEE5-4217-84D6-560742736381}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2018,7 +2017,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>연도별예산비교!$E$5:$E$6</c:f>
+              <c:f>연도별예산데이터!$H$5:$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2039,7 +2038,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>연도별예산비교!$B$7:$B$30</c:f>
+              <c:f>연도별예산데이터!$E$7:$E$30</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -2119,7 +2118,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>연도별예산비교!$E$7:$E$30</c:f>
+              <c:f>연도별예산데이터!$H$7:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2197,7 +2196,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3613-4926-81A0-0B3BABB47357}"/>
+              <c16:uniqueId val="{00000004-FEE5-4217-84D6-560742736381}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2206,7 +2205,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>연도별예산비교!$F$5:$F$6</c:f>
+              <c:f>연도별예산데이터!$I$5:$I$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2227,7 +2226,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>연도별예산비교!$B$7:$B$30</c:f>
+              <c:f>연도별예산데이터!$E$7:$E$30</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -2307,7 +2306,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>연도별예산비교!$F$7:$F$30</c:f>
+              <c:f>연도별예산데이터!$I$7:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2382,7 +2381,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3613-4926-81A0-0B3BABB47357}"/>
+              <c16:uniqueId val="{00000005-FEE5-4217-84D6-560742736381}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2395,11 +2394,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="726697824"/>
-        <c:axId val="726698784"/>
+        <c:axId val="445634400"/>
+        <c:axId val="445635360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="726697824"/>
+        <c:axId val="445634400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2496,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726698784"/>
+        <c:crossAx val="445635360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2505,7 +2504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="726698784"/>
+        <c:axId val="445635360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,14 +2622,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726697824"/>
+        <c:crossAx val="445634400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="404040"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2681,7 +2678,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="404040"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2729,6 +2726,1230 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[연구비_집행관리.xlsx]예산분석!BudgetAnalysisPivot</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>예산분석</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>예산과목별 지표</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>예산분석!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>예산금액</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>예산분석!$A$5:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>국내여비</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>국외업무여비</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>급여성복리후생비(일용직)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>도서인쇄비</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>보험료</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>사업추진비</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>소모품비</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>시설장비유지비</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>유류비</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>일반용역비</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>일용임금</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>일용직 고용부담금</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>일용직 비급여성비용</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>임차료</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>제세공과금</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>지급수수료</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>통신비</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>피복비</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>행사비</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>홍보비</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>회의비</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>예산분석!$B$5:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>220000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19800000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29347216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17400000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>281000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1256007740</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>277035006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11550000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>387000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6460038</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82900000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23400000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C9F1-47B0-BECC-1DA07A659CDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>예산분석!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>예산잔액</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>예산분석!$A$5:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>국내여비</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>국외업무여비</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>급여성복리후생비(일용직)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>도서인쇄비</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>보험료</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>사업추진비</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>소모품비</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>시설장비유지비</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>유류비</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>일반용역비</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>일용임금</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>일용직 고용부담금</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>일용직 비급여성비용</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>임차료</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>제세공과금</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>지급수수료</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>통신비</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>피복비</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>행사비</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>홍보비</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>회의비</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>예산분석!$C$5:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>216970000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30655000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19800000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28343350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27116846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4568000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15845836</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>269244200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1256007740</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>277035006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11550000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>386010000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6460038</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80082400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23400000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C9F1-47B0-BECC-1DA07A659CDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>예산분석!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>지출액</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>예산분석!$A$5:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>국내여비</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>국외업무여비</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>급여성복리후생비(일용직)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>도서인쇄비</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>보험료</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>사업추진비</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>소모품비</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>시설장비유지비</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>유류비</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>일반용역비</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>일용임금</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>일용직 고용부담금</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>일용직 비급여성비용</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>임차료</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>제세공과금</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>지급수수료</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>통신비</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>피복비</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>행사비</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>홍보비</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>회의비</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>예산분석!$D$5:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3030000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5345000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1056650</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2230370</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>432000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1554164</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11755800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>990000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2817600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C9F1-47B0-BECC-1DA07A659CDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>예산분석!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>집행률(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>예산분석!$A$5:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>국내여비</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>국외업무여비</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>급여성복리후생비(일용직)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>도서인쇄비</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>보험료</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>사업추진비</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>소모품비</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>시설장비유지비</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>유류비</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>일반용역비</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>일용임금</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>일용직 고용부담금</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>일용직 비급여성비용</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>임차료</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>제세공과금</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>지급수수료</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>통신비</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>피복비</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>행사비</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>홍보비</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>회의비</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>예산분석!$E$5:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C9F1-47B0-BECC-1DA07A659CDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="445593600"/>
+        <c:axId val="445586400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="445593600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445586400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445586400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445593600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3203,7 +4424,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-717E-4F21-AC85-E726558F0620}"/>
+              <c16:uniqueId val="{00000000-21D3-40F8-A465-446F33DAAF36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3376,7 +4597,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-717E-4F21-AC85-E726558F0620}"/>
+              <c16:uniqueId val="{00000001-21D3-40F8-A465-446F33DAAF36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3549,7 +4770,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-717E-4F21-AC85-E726558F0620}"/>
+              <c16:uniqueId val="{00000002-21D3-40F8-A465-446F33DAAF36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3722,7 +4943,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-717E-4F21-AC85-E726558F0620}"/>
+              <c16:uniqueId val="{00000003-21D3-40F8-A465-446F33DAAF36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3735,11 +4956,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1453890336"/>
-        <c:axId val="1453887456"/>
+        <c:axId val="307823647"/>
+        <c:axId val="307819327"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1453890336"/>
+        <c:axId val="307823647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3782,7 +5003,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1453887456"/>
+        <c:crossAx val="307819327"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3790,7 +5011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1453887456"/>
+        <c:axId val="307819327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,7 +5062,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1453890336"/>
+        <c:crossAx val="307823647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3953,6 +5174,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5024,6 +6285,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -5096,17 +6873,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1016000</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="차트 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3ABB9D9-EF9A-4D52-E4AF-8673DA350048}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DBB1B71-7A8B-B11E-A5C8-36D4342B8000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5126,14 +6903,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -5144,7 +6921,7 @@
             <xdr:cNvPr id="5" name="DashboardYearSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C424C7E-FBA8-D1FF-9723-B8805A05E80F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D947A0-1D3F-9A92-131E-F0F7667FFDD8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5171,7 +6948,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10414000" y="16697325"/>
+              <a:off x="12954000" y="16697325"/>
               <a:ext cx="1524000" cy="1714500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5204,16 +6981,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -5222,7 +6999,7 @@
             <xdr:cNvPr id="6" name="DashboardBudgetItemSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BB7F93-0CA5-EAA4-5E74-4A1B38FE5813}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DBB48F-AF8D-3B1A-9E18-6C00C6CD4C93}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5249,8 +7026,200 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10414000" y="18437225"/>
-              <a:ext cx="1524000" cy="3340100"/>
+              <a:off x="12954000" y="18437225"/>
+              <a:ext cx="1524000" cy="4610100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>이 도형은 슬라이서를 나타냅니다. 슬라이서는 Excel 2010 이상에서 지원됩니다.
+이 도형이 이전 버전의 Excel에서 수정되었거나 통합 문서가 Excel 2003 또는 이전 버전에서 저장된 경우 슬라이서를 사용할 수 없습니다.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A3B655-408F-F74F-01A5-7D8B5D034AFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="AnalysisMetricSlicer">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9748A662-0DAE-D374-1A67-483582D153F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="AnalysisMetricSlicer"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12954000" y="23507700"/>
+              <a:ext cx="1524000" cy="1905000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>이 도형은 슬라이서를 나타냅니다. 슬라이서는 Excel 2010 이상에서 지원됩니다.
+이 도형이 이전 버전의 Excel에서 수정되었거나 통합 문서가 Excel 2003 또는 이전 버전에서 저장된 경우 슬라이서를 사용할 수 없습니다.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="AnalysisBudgetItemSlicer">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB610553-6E4F-DD19-914E-E2031AAF47AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="AnalysisBudgetItemSlicer"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12954000" y="25412700"/>
+              <a:ext cx="1524000" cy="4445000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5303,7 +7272,7 @@
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A646A769-0C05-A99B-26EC-DF8656051B7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC719B13-7C30-F731-572D-39C10ACE92A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5341,7 +7310,7 @@
             <xdr:cNvPr id="3" name="BudgetItemSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D44EF7E-3408-9664-D9AB-42C10F1774DC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D666B1-73AE-A73E-E9B1-A6C873BED373}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5399,89 +7368,11 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="CharacteristicsSlicer">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F64F8E-8F7F-5532-9E6A-556408A3398F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="CharacteristicsSlicer"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13335000" y="4699000"/>
-              <a:ext cx="2540000" cy="1905000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-                <a:t>이 도형은 슬라이서를 나타냅니다. 슬라이서는 Excel 2010 이상에서 지원됩니다.
-이 도형이 이전 버전의 Excel에서 수정되었거나 통합 문서가 Excel 2003 또는 이전 버전에서 저장된 경우 슬라이서를 사용할 수 없습니다.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45911.396365740744" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="84" xr:uid="{F962A986-7DB0-4481-B743-F23AA599EFEF}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45911.453632870369" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="84" xr:uid="{5294978B-F2FA-4784-BC42-313832B876A7}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C85" sheet="예산분석데이터"/>
   </cacheSource>
@@ -5525,14 +7416,14 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="983341496"/>
+      <x14:pivotCacheDefinition pivotCacheId="1827327411"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45911.396407060187" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="91" xr:uid="{B48CF430-9903-454A-A86E-B957509D0042}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45911.453670486109" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="91" xr:uid="{F0263A96-A6B8-4A8E-8502-324822817955}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C92" sheet="연도별예산데이터"/>
   </cacheSource>
@@ -5579,7 +7470,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="663296073"/>
+      <x14:pivotCacheDefinition pivotCacheId="1321285781"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -6471,8 +8362,244 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{339CC0D9-6B7D-4141-8495-BF93E263A5A0}" name="YearlyBudgetComparison" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B5:F30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBC55BB1-3BBC-4C55-844C-C8DF03D9D0B3}" name="BudgetAnalysisPivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:E25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
+        <item x="17"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="값 합계" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE801998-D385-4B9A-8B87-E4C5B0B963D3}" name="YearlyBudgetComparison" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="E5:I30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
@@ -6670,201 +8797,13 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED98B5E9-BADD-47D6-A31E-D3CF24C49A6A}" name="BudgetAnalysisPivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:E25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item x="17"/>
-        <item x="18"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="19"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="16"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="15"/>
-        <item x="5"/>
-        <item x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="21">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="값 합계" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목" xr10:uid="{300CC125-FE19-44F0-950D-71059338BB23}" sourceName="예산과목">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목" xr10:uid="{D9E65564-B5F7-480D-960D-EBE4657E8540}" sourceName="예산과목">
   <pivotTables>
     <pivotTable tabId="7" name="BudgetAnalysisPivot"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="983341496">
+    <tabular pivotCacheId="1827327411">
       <items count="21">
         <i x="17" s="1"/>
         <i x="18" s="1"/>
@@ -6894,30 +8833,12 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_특성" xr10:uid="{5EB44671-F341-432D-993E-9E7A9E026486}" sourceName="특성">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_연도" xr10:uid="{1FC14C09-504D-4ECB-9A15-060F955C88B5}" sourceName="연도">
   <pivotTables>
-    <pivotTable tabId="7" name="BudgetAnalysisPivot"/>
+    <pivotTable tabId="9" name="YearlyBudgetComparison"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="983341496">
-      <items count="4">
-        <i x="0" s="1"/>
-        <i x="2" s="1"/>
-        <i x="1" s="1"/>
-        <i x="3" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_연도" xr10:uid="{F4F9004C-CE2B-4007-8C3A-F5729C199D9C}" sourceName="연도">
-  <pivotTables>
-    <pivotTable tabId="10" name="YearlyBudgetComparison"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="663296073">
+    <tabular pivotCacheId="1321285781">
       <items count="4">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
@@ -6929,13 +8850,13 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목1" xr10:uid="{F284F036-B38A-4400-9A69-C0F28642CC46}" sourceName="예산과목">
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목1" xr10:uid="{19C0834A-4021-4C47-95FB-63CBF2454EB0}" sourceName="예산과목">
   <pivotTables>
-    <pivotTable tabId="10" name="YearlyBudgetComparison"/>
+    <pivotTable tabId="9" name="YearlyBudgetComparison"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="663296073">
+    <tabular pivotCacheId="1321285781">
       <items count="24">
         <i x="17" s="1"/>
         <i x="18" s="1"/>
@@ -6967,17 +8888,36 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_특성" xr10:uid="{6F421934-B24F-4BB6-82B3-5573A02F13B6}" sourceName="특성">
+  <pivotTables>
+    <pivotTable tabId="7" name="BudgetAnalysisPivot"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1827327411">
+      <items count="4">
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+        <i x="3" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="DashboardYearSlicer" xr10:uid="{BAD187F6-24E7-4D18-9D11-35D502A5720C}" cache="슬라이서_연도" caption="연도 선택" rowHeight="273050"/>
-  <slicer name="DashboardBudgetItemSlicer" xr10:uid="{CAF94517-F8F6-44C7-B0F3-870B1F4D1D59}" cache="슬라이서_예산과목1" caption="예산과목 선택" rowHeight="273050"/>
+  <slicer name="AnalysisBudgetItemSlicer" xr10:uid="{A87AFE2B-85B2-4E08-8780-1FBF4C42668A}" cache="슬라이서_예산과목" caption="예산과목" rowHeight="273050"/>
+  <slicer name="DashboardYearSlicer" xr10:uid="{54CCBD38-57D1-4A90-85EA-E841147E188A}" cache="슬라이서_연도" caption="연도 선택" rowHeight="273050"/>
+  <slicer name="DashboardBudgetItemSlicer" xr10:uid="{B39E3F4B-2904-4ACF-BEDC-8A9732CA0412}" cache="슬라이서_예산과목1" caption="예산과목_연도별" rowHeight="273050"/>
+  <slicer name="AnalysisMetricSlicer" xr10:uid="{ACEBBC4A-53A0-4649-BC70-F8E308A969BE}" cache="슬라이서_특성" caption="측정항목" rowHeight="273050"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="BudgetItemSlicer" xr10:uid="{B4FDD841-63A1-4D63-A907-137A35C98FE3}" cache="슬라이서_예산과목" caption="예산과목 선택" rowHeight="273050"/>
-  <slicer name="CharacteristicsSlicer" xr10:uid="{7109224E-43D1-4D1A-A3E2-DA03CCB47B97}" cache="슬라이서_특성" caption="측정항목 선택" rowHeight="273050"/>
+  <slicer name="BudgetItemSlicer" xr10:uid="{DD3F3862-0380-47A9-B05F-0CB8825A36EA}" cache="슬라이서_예산과목" caption="예산과목 선택" rowHeight="273050"/>
 </slicers>
 </file>
 
@@ -7268,7 +9208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V300"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -14950,955 +16890,6 @@
       </x14:slicerList>
     </ext>
   </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481DDBCD-1882-488F-88FD-3EB349FAD548}">
-  <dimension ref="A1:C85"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>1256007740</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>1256007740</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>277035006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>277035006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>82900000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>2817600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>80082400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>37000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>37000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>29347216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19">
-        <v>2230370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>27116846</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>6460038</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>6460038</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38">
-        <v>23400000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40">
-        <v>23400000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42">
-        <v>387000000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43">
-        <v>990000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44">
-        <v>386010000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46">
-        <v>17400000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47">
-        <v>1554164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48">
-        <v>15845836</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51">
-        <v>432000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52">
-        <v>4568000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54">
-        <v>19800000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56">
-        <v>19800000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58">
-        <v>11550000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60">
-        <v>11550000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66">
-        <v>281000000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67">
-        <v>11755800</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68">
-        <v>269244200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70">
-        <v>220000000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71">
-        <v>3030000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72">
-        <v>216970000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>57</v>
-      </c>
-      <c r="B73" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74">
-        <v>36000000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>59</v>
-      </c>
-      <c r="B75" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75">
-        <v>5345000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76">
-        <v>30655000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78">
-        <v>29400000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>61</v>
-      </c>
-      <c r="B79" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79">
-        <v>1056650</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80">
-        <v>28343350</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>61</v>
-      </c>
-      <c r="B81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>62</v>
-      </c>
-      <c r="B83" t="s">
-        <v>31</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>62</v>
-      </c>
-      <c r="B84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -21421,446 +22412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EE2294-F8BF-432D-8663-E83B343D3C37}">
-  <dimension ref="B5:F30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:6">
-      <c r="B5" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6">
-        <v>2022</v>
-      </c>
-      <c r="D6">
-        <v>2023</v>
-      </c>
-      <c r="E6">
-        <v>2024</v>
-      </c>
-      <c r="F6">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
-        <v>56850424</v>
-      </c>
-      <c r="D7">
-        <v>78758700</v>
-      </c>
-      <c r="E7">
-        <v>94145553</v>
-      </c>
-      <c r="F7">
-        <v>220000000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8">
-        <v>5377178</v>
-      </c>
-      <c r="D8">
-        <v>23350489</v>
-      </c>
-      <c r="E8">
-        <v>87572962</v>
-      </c>
-      <c r="F8">
-        <v>36000000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9">
-        <v>8400660</v>
-      </c>
-      <c r="D9">
-        <v>252000</v>
-      </c>
-      <c r="E9">
-        <v>6168154</v>
-      </c>
-      <c r="F9">
-        <v>19800000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>55113610</v>
-      </c>
-      <c r="D10">
-        <v>48650071</v>
-      </c>
-      <c r="E10">
-        <v>2828080</v>
-      </c>
-      <c r="F10">
-        <v>37000000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11">
-        <v>510250</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12">
-        <v>13198367</v>
-      </c>
-      <c r="D12">
-        <v>9526058</v>
-      </c>
-      <c r="E12">
-        <v>33032440</v>
-      </c>
-      <c r="F12">
-        <v>29400000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13">
-        <v>17729290</v>
-      </c>
-      <c r="D13">
-        <v>14501530</v>
-      </c>
-      <c r="E13">
-        <v>9722100</v>
-      </c>
-      <c r="F13">
-        <v>29347216</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15">
-        <v>220163220</v>
-      </c>
-      <c r="D15">
-        <v>230150000</v>
-      </c>
-      <c r="E15">
-        <v>14239394</v>
-      </c>
-      <c r="F15">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16">
-        <v>5354443</v>
-      </c>
-      <c r="D16">
-        <v>3759858</v>
-      </c>
-      <c r="E16">
-        <v>205000</v>
-      </c>
-      <c r="F16">
-        <v>17400000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17">
-        <v>149965000</v>
-      </c>
-      <c r="D17">
-        <v>78800000</v>
-      </c>
-      <c r="E17">
-        <v>4617346</v>
-      </c>
-      <c r="F17">
-        <v>281000000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18">
-        <v>704306201</v>
-      </c>
-      <c r="D18">
-        <v>691030061</v>
-      </c>
-      <c r="E18">
-        <v>689170381</v>
-      </c>
-      <c r="F18">
-        <v>1256007740</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19">
-        <v>117701339</v>
-      </c>
-      <c r="D19">
-        <v>71814130</v>
-      </c>
-      <c r="E19">
-        <v>11757858</v>
-      </c>
-      <c r="F19">
-        <v>277035006</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20">
-        <v>9639600</v>
-      </c>
-      <c r="D20">
-        <v>10029600</v>
-      </c>
-      <c r="E20">
-        <v>9982100</v>
-      </c>
-      <c r="F20">
-        <v>11550000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21">
-        <v>109215965</v>
-      </c>
-      <c r="D21">
-        <v>118801805</v>
-      </c>
-      <c r="E21">
-        <v>122480003</v>
-      </c>
-      <c r="F21">
-        <v>387000000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22">
-        <v>9990000</v>
-      </c>
-      <c r="E22">
-        <v>122480003</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23">
-        <v>18295327</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>3188963</v>
-      </c>
-      <c r="E24">
-        <v>3313080</v>
-      </c>
-      <c r="F24">
-        <v>6460038</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25">
-        <v>85540875</v>
-      </c>
-      <c r="D25">
-        <v>83413923</v>
-      </c>
-      <c r="E25">
-        <v>70705927</v>
-      </c>
-      <c r="F25">
-        <v>82900000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26">
-        <v>198000</v>
-      </c>
-      <c r="D26">
-        <v>330000</v>
-      </c>
-      <c r="E26">
-        <v>194150</v>
-      </c>
-      <c r="F26">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27">
-        <v>11998000</v>
-      </c>
-      <c r="D27">
-        <v>14357100</v>
-      </c>
-      <c r="E27">
-        <v>15600000</v>
-      </c>
-      <c r="F27">
-        <v>23400000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28">
-        <v>10108000</v>
-      </c>
-      <c r="D28">
-        <v>56760000</v>
-      </c>
-      <c r="E28">
-        <v>27653000</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29">
-        <v>12987690</v>
-      </c>
-      <c r="D29">
-        <v>10992000</v>
-      </c>
-      <c r="E29">
-        <v>2998250</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30">
-        <v>17803560</v>
-      </c>
-      <c r="D30">
-        <v>14662950</v>
-      </c>
-      <c r="E30">
-        <v>12898420</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADC13D5-FEF9-4B1E-9F65-9C5297A6B42D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177611B8-80EF-4FA4-834A-01E3F536A7AC}">
   <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22271,1024 +22823,2346 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B5C5C6-D8D6-4B36-B64E-EF9ACF536E41}">
-  <dimension ref="A1:C92"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B365DF56-573C-4778-970B-28C4A6C3B8FC}">
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>704306201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>117701339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>85540875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>55113610</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>17729290</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+      <c r="G6">
+        <v>2023</v>
+      </c>
+      <c r="H6">
+        <v>2024</v>
+      </c>
+      <c r="I6">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>12987690</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>56850424</v>
+      </c>
+      <c r="G7">
+        <v>78758700</v>
+      </c>
+      <c r="H7">
+        <v>94145553</v>
+      </c>
+      <c r="I7">
+        <v>220000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8">
+        <v>5377178</v>
+      </c>
+      <c r="G8">
+        <v>23350489</v>
+      </c>
+      <c r="H8">
+        <v>87572962</v>
+      </c>
+      <c r="I8">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>198000</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9">
+        <v>8400660</v>
+      </c>
+      <c r="G9">
+        <v>252000</v>
+      </c>
+      <c r="H9">
+        <v>6168154</v>
+      </c>
+      <c r="I9">
+        <v>19800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>510250</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>55113610</v>
+      </c>
+      <c r="G10">
+        <v>48650071</v>
+      </c>
+      <c r="H10">
+        <v>2828080</v>
+      </c>
+      <c r="I10">
+        <v>37000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>11998000</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>510250</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>109215965</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>13198367</v>
+      </c>
+      <c r="G12">
+        <v>9526058</v>
+      </c>
+      <c r="H12">
+        <v>33032440</v>
+      </c>
+      <c r="I12">
+        <v>29400000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>5354443</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>17729290</v>
+      </c>
+      <c r="G13">
+        <v>14501530</v>
+      </c>
+      <c r="H13">
+        <v>9722100</v>
+      </c>
+      <c r="I13">
+        <v>29347216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>2022</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>8400660</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15">
+        <v>220163220</v>
+      </c>
+      <c r="G15">
+        <v>230150000</v>
+      </c>
+      <c r="H15">
+        <v>14239394</v>
+      </c>
+      <c r="I15">
+        <v>90000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>2022</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>9639600</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16">
+        <v>5354443</v>
+      </c>
+      <c r="G16">
+        <v>3759858</v>
+      </c>
+      <c r="H16">
+        <v>205000</v>
+      </c>
+      <c r="I16">
+        <v>17400000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>2022</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>10108000</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17">
+        <v>149965000</v>
+      </c>
+      <c r="G17">
+        <v>78800000</v>
+      </c>
+      <c r="H17">
+        <v>4617346</v>
+      </c>
+      <c r="I17">
+        <v>281000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>2022</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>149965000</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>704306201</v>
+      </c>
+      <c r="G18">
+        <v>691030061</v>
+      </c>
+      <c r="H18">
+        <v>689170381</v>
+      </c>
+      <c r="I18">
+        <v>1256007740</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>2022</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>56850424</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19">
+        <v>117701339</v>
+      </c>
+      <c r="G19">
+        <v>71814130</v>
+      </c>
+      <c r="H19">
+        <v>11757858</v>
+      </c>
+      <c r="I19">
+        <v>277035006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>2022</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>5377178</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20">
+        <v>9639600</v>
+      </c>
+      <c r="G20">
+        <v>10029600</v>
+      </c>
+      <c r="H20">
+        <v>9982100</v>
+      </c>
+      <c r="I20">
+        <v>11550000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>2022</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>13198367</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21">
+        <v>109215965</v>
+      </c>
+      <c r="G21">
+        <v>118801805</v>
+      </c>
+      <c r="H21">
+        <v>122480003</v>
+      </c>
+      <c r="I21">
+        <v>387000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>2022</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>17803560</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22">
+        <v>9990000</v>
+      </c>
+      <c r="H22">
+        <v>122480003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>2022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>220163220</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23">
+        <v>18295327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>2022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24">
+        <v>18295327</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>3188963</v>
+      </c>
+      <c r="H24">
+        <v>3313080</v>
+      </c>
+      <c r="I24">
+        <v>6460038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>2023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>691030061</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>85540875</v>
+      </c>
+      <c r="G25">
+        <v>83413923</v>
+      </c>
+      <c r="H25">
+        <v>70705927</v>
+      </c>
+      <c r="I25">
+        <v>82900000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>71814130</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>198000</v>
+      </c>
+      <c r="G26">
+        <v>330000</v>
+      </c>
+      <c r="H26">
+        <v>194150</v>
+      </c>
+      <c r="I26">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>2023</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>83413923</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27">
+        <v>11998000</v>
+      </c>
+      <c r="G27">
+        <v>14357100</v>
+      </c>
+      <c r="H27">
+        <v>15600000</v>
+      </c>
+      <c r="I27">
+        <v>23400000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>2023</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>48650071</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28">
+        <v>10108000</v>
+      </c>
+      <c r="G28">
+        <v>56760000</v>
+      </c>
+      <c r="H28">
+        <v>27653000</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>2023</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>14501530</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29">
+        <v>12987690</v>
+      </c>
+      <c r="G29">
+        <v>10992000</v>
+      </c>
+      <c r="H29">
+        <v>2998250</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>2023</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30">
+        <v>10992000</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30">
+        <v>17803560</v>
+      </c>
+      <c r="G30">
+        <v>14662950</v>
+      </c>
+      <c r="H30">
+        <v>12898420</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>2023</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>3188963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>2023</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>2023</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>14357100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>2023</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>118801805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>2023</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>3759858</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>2023</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>2023</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>2023</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>10029600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>2023</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>56760000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>2023</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>78800000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>2023</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>78758700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>2023</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43">
+        <v>23350489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>2023</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>9526058</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>2023</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45">
+        <v>14662950</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>2023</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46">
+        <v>230150000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>2023</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47">
+        <v>9990000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>2024</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48">
+        <v>689170381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>2024</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>11757858</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>2024</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50">
+        <v>70705927</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>2024</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>2828080</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2024</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52">
+        <v>9722100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53">
+        <v>2998250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2024</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54">
+        <v>3313080</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2024</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55">
+        <v>194150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>2024</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>2024</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57">
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>2024</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58">
+        <v>122480003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>2024</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>2024</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2024</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61">
+        <v>6168154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>2024</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62">
+        <v>9982100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>2024</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63">
+        <v>27653000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>2024</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64">
+        <v>4617346</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>2024</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65">
+        <v>94145553</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>2024</v>
+      </c>
+      <c r="B66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66">
+        <v>87572962</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>2024</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67">
+        <v>33032440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>2024</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68">
+        <v>12898420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>2024</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69">
+        <v>14239394</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>2024</v>
+      </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70">
+        <v>122480003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>2025</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71">
+        <v>1256007740</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>2025</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72">
+        <v>277035006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>2025</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73">
+        <v>82900000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>2025</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74">
+        <v>37000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>2025</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75">
+        <v>29347216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>2025</v>
+      </c>
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>2025</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77">
+        <v>6460038</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>2025</v>
+      </c>
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>2025</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>2025</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80">
+        <v>23400000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>2025</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81">
+        <v>387000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>2025</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82">
+        <v>17400000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>2025</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>2025</v>
+      </c>
+      <c r="B84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84">
+        <v>19800000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>2025</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85">
+        <v>11550000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>2025</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>2025</v>
+      </c>
+      <c r="B87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87">
+        <v>281000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>2025</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88">
+        <v>220000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>2025</v>
+      </c>
+      <c r="B89" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>2025</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90">
+        <v>29400000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>2025</v>
+      </c>
+      <c r="B91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>2025</v>
+      </c>
+      <c r="B92" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92">
+        <v>90000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76530B6-D067-4F0A-A31F-2DDFB3495FEC}">
+  <dimension ref="A1:C85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>2022</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>1256007740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="C2">
-        <v>704306201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2022</v>
-      </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1256007740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="C3">
-        <v>117701339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>277035006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>277035006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="C4">
-        <v>85540875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>82900000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>2817600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>80082400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="C5">
-        <v>55113610</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>2022</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>37000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>37000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="C6">
-        <v>17729290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>29347216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>2230370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>27116846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="C7">
-        <v>12987690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>6460038</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>6460038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="C9">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="C10">
-        <v>510250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>47</v>
       </c>
-      <c r="C11">
-        <v>11998000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>2022</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>23400000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>23400000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="C12">
-        <v>109215965</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>2022</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>387000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>386010000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="C13">
-        <v>5354443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <v>17400000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47">
+        <v>1554164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>15845836</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51">
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>4568000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="C15">
-        <v>8400660</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>2022</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>19800000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>19800000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>53</v>
       </c>
-      <c r="C16">
-        <v>9639600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>2022</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58">
+        <v>11550000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>11550000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
         <v>55</v>
       </c>
-      <c r="C17">
-        <v>10108000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>2022</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>54</v>
       </c>
-      <c r="C18">
-        <v>149965000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>2022</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66">
+        <v>281000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67">
+        <v>11755800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68">
+        <v>269244200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>57</v>
       </c>
-      <c r="C19">
-        <v>56850424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>2022</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>220000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71">
+        <v>3030000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72">
+        <v>216970000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
         <v>59</v>
       </c>
-      <c r="C20">
-        <v>5377178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>2022</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75">
+        <v>5345000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>30655000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>61</v>
       </c>
-      <c r="C21">
-        <v>13198367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>2022</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <v>29400000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79">
+        <v>1056650</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>28343350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>62</v>
       </c>
-      <c r="C22">
-        <v>17803560</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>2022</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23">
-        <v>220163220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>2022</v>
-      </c>
-      <c r="B24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24">
-        <v>18295327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>2023</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25">
-        <v>691030061</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>2023</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26">
-        <v>71814130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>2023</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27">
-        <v>83413923</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>2023</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28">
-        <v>48650071</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>2023</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29">
-        <v>14501530</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>2023</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30">
-        <v>10992000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>2023</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31">
-        <v>3188963</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>2023</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32">
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>2023</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>2023</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34">
-        <v>14357100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>2023</v>
-      </c>
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35">
-        <v>118801805</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>2023</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36">
-        <v>3759858</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>2023</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>2023</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38">
-        <v>252000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>2023</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39">
-        <v>10029600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>2023</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40">
-        <v>56760000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>2023</v>
-      </c>
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41">
-        <v>78800000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>2023</v>
-      </c>
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42">
-        <v>78758700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>2023</v>
-      </c>
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43">
-        <v>23350489</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>2023</v>
-      </c>
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44">
-        <v>9526058</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>2023</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>62</v>
       </c>
-      <c r="C45">
-        <v>14662950</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>2023</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46">
-        <v>230150000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>2023</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47">
-        <v>9990000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>2024</v>
-      </c>
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48">
-        <v>689170381</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>2024</v>
-      </c>
-      <c r="B49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49">
-        <v>11757858</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>2024</v>
-      </c>
-      <c r="B50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50">
-        <v>70705927</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>2024</v>
-      </c>
-      <c r="B51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51">
-        <v>2828080</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>2024</v>
-      </c>
-      <c r="B52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52">
-        <v>9722100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>2024</v>
-      </c>
-      <c r="B53" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53">
-        <v>2998250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>2024</v>
-      </c>
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54">
-        <v>3313080</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>2024</v>
-      </c>
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55">
-        <v>194150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>2024</v>
-      </c>
-      <c r="B56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
-        <v>2024</v>
-      </c>
-      <c r="B57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57">
-        <v>15600000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
-        <v>2024</v>
-      </c>
-      <c r="B58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58">
-        <v>122480003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
-        <v>2024</v>
-      </c>
-      <c r="B59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59">
-        <v>205000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
-        <v>2024</v>
-      </c>
-      <c r="B60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>2024</v>
-      </c>
-      <c r="B61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61">
-        <v>6168154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
-        <v>2024</v>
-      </c>
-      <c r="B62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62">
-        <v>9982100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
-        <v>2024</v>
-      </c>
-      <c r="B63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63">
-        <v>27653000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>2024</v>
-      </c>
-      <c r="B64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64">
-        <v>4617346</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
-        <v>2024</v>
-      </c>
-      <c r="B65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65">
-        <v>94145553</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
-        <v>2024</v>
-      </c>
-      <c r="B66" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66">
-        <v>87572962</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
-        <v>2024</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67">
-        <v>33032440</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>2024</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
         <v>62</v>
       </c>
-      <c r="C68">
-        <v>12898420</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
-        <v>2024</v>
-      </c>
-      <c r="B69" t="s">
-        <v>64</v>
-      </c>
-      <c r="C69">
-        <v>14239394</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
-        <v>2024</v>
-      </c>
-      <c r="B70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70">
-        <v>122480003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
-        <v>2025</v>
-      </c>
-      <c r="B71" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71">
-        <v>1256007740</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
-        <v>2025</v>
-      </c>
-      <c r="B72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72">
-        <v>277035006</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
-        <v>2025</v>
-      </c>
-      <c r="B73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73">
-        <v>82900000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
-        <v>2025</v>
-      </c>
-      <c r="B74" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74">
-        <v>37000000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>2025</v>
-      </c>
-      <c r="B75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75">
-        <v>29347216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>2025</v>
-      </c>
-      <c r="B76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>2025</v>
-      </c>
-      <c r="B77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77">
-        <v>6460038</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
-        <v>2025</v>
-      </c>
-      <c r="B78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>2025</v>
-      </c>
-      <c r="B79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>2025</v>
-      </c>
-      <c r="B80" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80">
-        <v>23400000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
-        <v>2025</v>
-      </c>
-      <c r="B81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81">
-        <v>387000000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>2025</v>
-      </c>
-      <c r="B82" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82">
-        <v>17400000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>2025</v>
-      </c>
-      <c r="B83" t="s">
-        <v>50</v>
-      </c>
-      <c r="C83">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>2025</v>
-      </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C84">
-        <v>19800000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85">
-        <v>2025</v>
+      <c r="A85" t="s">
+        <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C85">
-        <v>11550000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>2025</v>
-      </c>
-      <c r="B86" t="s">
-        <v>55</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>2025</v>
-      </c>
-      <c r="B87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C87">
-        <v>281000000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>2025</v>
-      </c>
-      <c r="B88" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88">
-        <v>220000000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
-        <v>2025</v>
-      </c>
-      <c r="B89" t="s">
-        <v>59</v>
-      </c>
-      <c r="C89">
-        <v>36000000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
-        <v>2025</v>
-      </c>
-      <c r="B90" t="s">
-        <v>61</v>
-      </c>
-      <c r="C90">
-        <v>29400000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
-        <v>2025</v>
-      </c>
-      <c r="B91" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
-        <v>2025</v>
-      </c>
-      <c r="B92" t="s">
-        <v>64</v>
-      </c>
-      <c r="C92">
-        <v>90000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/연구비_집행관리.xlsx
+++ b/test/연구비_집행관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BB1\Desktop\업무\연구비자동화\KISS-\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BEBF3D-986F-40EA-B44F-6C0737AC1541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB7EAC9-5ACB-48BB-A1BC-34BF6A809788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="156">
   <si>
-    <t>업데이트: 2025-09-11</t>
+    <t>업데이트: 2025-09-15</t>
   </si>
   <si>
     <t>2025 차세대 국가대표 스포츠과학지원 사업 예산 현황</t>
@@ -85,7 +85,7 @@
     <t>사업진행률</t>
   </si>
   <si>
-    <t>"53.3%"</t>
+    <t>"54.4%"</t>
   </si>
   <si>
     <t>핵심 성과 지표 (KPI)</t>
@@ -1141,7 +1141,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3DD4-4F76-9ADB-426E7DB0426A}"/>
+              <c16:uniqueId val="{00000000-06D7-44A6-868A-0DED0524B3A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1297,7 +1297,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-81A3-41E5-832D-9E035AADD9B5}"/>
+              <c16:uniqueId val="{00000000-6837-4E48-8595-3123D19D0FB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1820,7 +1820,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FEE5-4217-84D6-560742736381}"/>
+              <c16:uniqueId val="{00000002-F063-447C-A50D-1E6AD3A066BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2008,7 +2008,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FEE5-4217-84D6-560742736381}"/>
+              <c16:uniqueId val="{00000003-F063-447C-A50D-1E6AD3A066BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2196,7 +2196,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FEE5-4217-84D6-560742736381}"/>
+              <c16:uniqueId val="{00000004-F063-447C-A50D-1E6AD3A066BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2381,7 +2381,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FEE5-4217-84D6-560742736381}"/>
+              <c16:uniqueId val="{00000005-F063-447C-A50D-1E6AD3A066BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2394,11 +2394,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445634400"/>
-        <c:axId val="445635360"/>
+        <c:axId val="1915688640"/>
+        <c:axId val="1915684800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445634400"/>
+        <c:axId val="1915688640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2496,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445635360"/>
+        <c:crossAx val="1915684800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2504,7 +2504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445635360"/>
+        <c:axId val="1915684800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2622,7 +2622,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445634400"/>
+        <c:crossAx val="1915688640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3208,7 +3208,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C9F1-47B0-BECC-1DA07A659CDD}"/>
+              <c16:uniqueId val="{00000002-5350-4B03-91B3-07877992C71D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3381,7 +3381,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C9F1-47B0-BECC-1DA07A659CDD}"/>
+              <c16:uniqueId val="{00000003-5350-4B03-91B3-07877992C71D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3554,7 +3554,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C9F1-47B0-BECC-1DA07A659CDD}"/>
+              <c16:uniqueId val="{00000004-5350-4B03-91B3-07877992C71D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3727,7 +3727,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C9F1-47B0-BECC-1DA07A659CDD}"/>
+              <c16:uniqueId val="{00000005-5350-4B03-91B3-07877992C71D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3740,11 +3740,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445593600"/>
-        <c:axId val="445586400"/>
+        <c:axId val="1915659840"/>
+        <c:axId val="1915654560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445593600"/>
+        <c:axId val="1915659840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3787,7 +3787,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445586400"/>
+        <c:crossAx val="1915654560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3795,7 +3795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445586400"/>
+        <c:axId val="1915654560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3846,7 +3846,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445593600"/>
+        <c:crossAx val="1915659840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4424,7 +4424,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-21D3-40F8-A465-446F33DAAF36}"/>
+              <c16:uniqueId val="{00000000-3963-4307-9DE9-FFAD341C3CDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4597,7 +4597,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-21D3-40F8-A465-446F33DAAF36}"/>
+              <c16:uniqueId val="{00000001-3963-4307-9DE9-FFAD341C3CDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4770,7 +4770,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-21D3-40F8-A465-446F33DAAF36}"/>
+              <c16:uniqueId val="{00000002-3963-4307-9DE9-FFAD341C3CDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4943,7 +4943,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-21D3-40F8-A465-446F33DAAF36}"/>
+              <c16:uniqueId val="{00000003-3963-4307-9DE9-FFAD341C3CDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4956,11 +4956,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="307823647"/>
-        <c:axId val="307819327"/>
+        <c:axId val="601434351"/>
+        <c:axId val="601374351"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="307823647"/>
+        <c:axId val="601434351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5003,7 +5003,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307819327"/>
+        <c:crossAx val="601374351"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5011,7 +5011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307819327"/>
+        <c:axId val="601374351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5062,7 +5062,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307823647"/>
+        <c:crossAx val="601434351"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6883,7 +6883,7 @@
         <xdr:cNvPr id="4" name="차트 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DBB1B71-7A8B-B11E-A5C8-36D4342B8000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25AAB56-EA76-DBA7-1329-D873448C1C5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6921,7 +6921,7 @@
             <xdr:cNvPr id="5" name="DashboardYearSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D947A0-1D3F-9A92-131E-F0F7667FFDD8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7BCD55-A560-EE12-0EFF-86FA025A8E84}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6999,7 +6999,7 @@
             <xdr:cNvPr id="6" name="DashboardBudgetItemSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DBB48F-AF8D-3B1A-9E18-6C00C6CD4C93}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E63B9F-B96D-617B-1E47-4A1CFD10A0CF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7075,7 +7075,7 @@
         <xdr:cNvPr id="7" name="차트 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A3B655-408F-F74F-01A5-7D8B5D034AFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AC73B5-D6CA-EF13-45C2-AC93EEF56711}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7113,7 +7113,7 @@
             <xdr:cNvPr id="8" name="AnalysisMetricSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9748A662-0DAE-D374-1A67-483582D153F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51781F1C-8D5A-11EB-85E1-611F55A05B7D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7191,7 +7191,7 @@
             <xdr:cNvPr id="9" name="AnalysisBudgetItemSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB610553-6E4F-DD19-914E-E2031AAF47AF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9248C1-7413-C5B6-43AC-B1AD326CADF4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7272,7 +7272,7 @@
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC719B13-7C30-F731-572D-39C10ACE92A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A96648-DB2D-7DBC-E6B2-B4B82D120836}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7310,7 +7310,7 @@
             <xdr:cNvPr id="3" name="BudgetItemSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D666B1-73AE-A73E-E9B1-A6C873BED373}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF036B8-7BB5-1555-AAFC-6D61AA3ECC1E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7372,7 +7372,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45911.453632870369" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="84" xr:uid="{5294978B-F2FA-4784-BC42-313832B876A7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45915.369236342594" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="84" xr:uid="{1931B09D-8809-476B-AF70-A0EE14FE73E0}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C85" sheet="예산분석데이터"/>
   </cacheSource>
@@ -7416,14 +7416,14 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1827327411"/>
+      <x14:pivotCacheDefinition pivotCacheId="970758328"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45911.453670486109" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="91" xr:uid="{F0263A96-A6B8-4A8E-8502-324822817955}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45915.369279861108" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="91" xr:uid="{AB37DA75-F49C-4621-ABC4-F90091F15B1F}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C92" sheet="연도별예산데이터"/>
   </cacheSource>
@@ -7470,7 +7470,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1321285781"/>
+      <x14:pivotCacheDefinition pivotCacheId="1468067312"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -8362,7 +8362,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBC55BB1-3BBC-4C55-844C-C8DF03D9D0B3}" name="BudgetAnalysisPivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04B34CB7-3671-4DF3-942B-66B012CABD13}" name="BudgetAnalysisPivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:E25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -8598,7 +8598,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE801998-D385-4B9A-8B87-E4C5B0B963D3}" name="YearlyBudgetComparison" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF1E1A46-2E83-4BE3-AE5F-44DEAE4B6A25}" name="YearlyBudgetComparison" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="E5:I30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -8798,12 +8798,12 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목" xr10:uid="{D9E65564-B5F7-480D-960D-EBE4657E8540}" sourceName="예산과목">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목" xr10:uid="{A437C5FF-6D38-4282-95FC-D73577795873}" sourceName="예산과목">
   <pivotTables>
     <pivotTable tabId="7" name="BudgetAnalysisPivot"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1827327411">
+    <tabular pivotCacheId="970758328">
       <items count="21">
         <i x="17" s="1"/>
         <i x="18" s="1"/>
@@ -8833,12 +8833,12 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_연도" xr10:uid="{1FC14C09-504D-4ECB-9A15-060F955C88B5}" sourceName="연도">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_연도" xr10:uid="{002101E4-B8DF-4F80-B54C-2D146F9ADF5D}" sourceName="연도">
   <pivotTables>
     <pivotTable tabId="9" name="YearlyBudgetComparison"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1321285781">
+    <tabular pivotCacheId="1468067312">
       <items count="4">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
@@ -8851,12 +8851,12 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목1" xr10:uid="{19C0834A-4021-4C47-95FB-63CBF2454EB0}" sourceName="예산과목">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목1" xr10:uid="{D15D5A52-8C5A-4BEE-B278-5C072FCFE6E4}" sourceName="예산과목">
   <pivotTables>
     <pivotTable tabId="9" name="YearlyBudgetComparison"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1321285781">
+    <tabular pivotCacheId="1468067312">
       <items count="24">
         <i x="17" s="1"/>
         <i x="18" s="1"/>
@@ -8889,12 +8889,12 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_특성" xr10:uid="{6F421934-B24F-4BB6-82B3-5573A02F13B6}" sourceName="특성">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_특성" xr10:uid="{1F49DE6C-EEC6-46FE-B149-EB8D743F808D}" sourceName="특성">
   <pivotTables>
     <pivotTable tabId="7" name="BudgetAnalysisPivot"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1827327411">
+    <tabular pivotCacheId="970758328">
       <items count="4">
         <i x="0" s="1"/>
         <i x="2" s="1"/>
@@ -8908,16 +8908,16 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="AnalysisBudgetItemSlicer" xr10:uid="{A87AFE2B-85B2-4E08-8780-1FBF4C42668A}" cache="슬라이서_예산과목" caption="예산과목" rowHeight="273050"/>
-  <slicer name="DashboardYearSlicer" xr10:uid="{54CCBD38-57D1-4A90-85EA-E841147E188A}" cache="슬라이서_연도" caption="연도 선택" rowHeight="273050"/>
-  <slicer name="DashboardBudgetItemSlicer" xr10:uid="{B39E3F4B-2904-4ACF-BEDC-8A9732CA0412}" cache="슬라이서_예산과목1" caption="예산과목_연도별" rowHeight="273050"/>
-  <slicer name="AnalysisMetricSlicer" xr10:uid="{ACEBBC4A-53A0-4649-BC70-F8E308A969BE}" cache="슬라이서_특성" caption="측정항목" rowHeight="273050"/>
+  <slicer name="AnalysisBudgetItemSlicer" xr10:uid="{A31A7E0B-8700-46AA-A7D4-5F75AEDB3DAD}" cache="슬라이서_예산과목" caption="예산과목" rowHeight="273050"/>
+  <slicer name="DashboardYearSlicer" xr10:uid="{91127FC6-A9BF-42F9-A8A0-47ED8BEF8AF6}" cache="슬라이서_연도" caption="연도 선택" rowHeight="273050"/>
+  <slicer name="DashboardBudgetItemSlicer" xr10:uid="{42346838-7800-407C-96AB-19F7FC520F19}" cache="슬라이서_예산과목1" caption="예산과목_연도별" rowHeight="273050"/>
+  <slicer name="AnalysisMetricSlicer" xr10:uid="{5FD74987-414C-422F-981B-D153853CF1D8}" cache="슬라이서_특성" caption="측정항목" rowHeight="273050"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="BudgetItemSlicer" xr10:uid="{DD3F3862-0380-47A9-B05F-0CB8825A36EA}" cache="슬라이서_예산과목" caption="예산과목 선택" rowHeight="273050"/>
+  <slicer name="BudgetItemSlicer" xr10:uid="{C1E8B6F1-35E7-4506-9A69-2A7103BBD79C}" cache="슬라이서_예산과목" caption="예산과목 선택" rowHeight="273050"/>
 </slicers>
 </file>
 
@@ -22412,7 +22412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177611B8-80EF-4FA4-834A-01E3F536A7AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559E79D2-8B9C-4F45-BA68-66DF04B0AB1A}">
   <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22824,7 +22824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B365DF56-573C-4778-970B-28C4A6C3B8FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F30E57-1580-4B5D-A4A7-A6DBE8719E23}">
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24223,7 +24223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76530B6-D067-4F0A-A31F-2DDFB3495FEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DBF981-B82C-4E26-9488-D39DA96C1C60}">
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/test/연구비_집행관리.xlsx
+++ b/test/연구비_집행관리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BB1\Desktop\업무\연구비자동화\KISS-\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB7EAC9-5ACB-48BB-A1BC-34BF6A809788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F66CFEE-A44C-455C-8A61-C22A52F380E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,8 @@
     <sheet name="연구비" sheetId="4" r:id="rId4"/>
     <sheet name="집행관리(사업비)" sheetId="5" r:id="rId5"/>
     <sheet name="집행관리(연구비)" sheetId="6" r:id="rId6"/>
-    <sheet name="예산분석" sheetId="7" r:id="rId7"/>
-    <sheet name="연도별예산데이터" sheetId="9" r:id="rId8"/>
-    <sheet name="예산분석데이터" sheetId="8" r:id="rId9"/>
+    <sheet name="연도별예산데이터" sheetId="8" r:id="rId7"/>
+    <sheet name="예산분석데이터" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="슬라이서_연도">#N/A</definedName>
@@ -31,16 +30,16 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId11"/>
         <x14:slicerCache r:id="rId12"/>
         <x14:slicerCache r:id="rId13"/>
         <x14:slicerCache r:id="rId14"/>
-        <x14:slicerCache r:id="rId15"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -523,7 +522,7 @@
     <t>예산금액 합계</t>
   </si>
   <si>
-    <t>📊 연도별 예산 비교 분석</t>
+    <t>📊 예산 비교 분석</t>
   </si>
   <si>
     <t>연도별 예산과목별 예산금액을 비교분석할 수 있습니다.</t>
@@ -1141,7 +1140,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-06D7-44A6-868A-0DED0524B3A2}"/>
+              <c16:uniqueId val="{00000000-77D0-4573-87CA-52BCA0288AFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1297,7 +1296,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6837-4E48-8595-3123D19D0FB2}"/>
+              <c16:uniqueId val="{00000000-BF9D-4D9D-9427-F53ABF90B7F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1820,7 +1819,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F063-447C-A50D-1E6AD3A066BC}"/>
+              <c16:uniqueId val="{00000002-427C-4814-93C1-B5B8567F4112}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2008,7 +2007,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F063-447C-A50D-1E6AD3A066BC}"/>
+              <c16:uniqueId val="{00000003-427C-4814-93C1-B5B8567F4112}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2196,7 +2195,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F063-447C-A50D-1E6AD3A066BC}"/>
+              <c16:uniqueId val="{00000004-427C-4814-93C1-B5B8567F4112}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2381,7 +2380,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F063-447C-A50D-1E6AD3A066BC}"/>
+              <c16:uniqueId val="{00000005-427C-4814-93C1-B5B8567F4112}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2394,11 +2393,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1915688640"/>
-        <c:axId val="1915684800"/>
+        <c:axId val="1305093311"/>
+        <c:axId val="1305098111"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1915688640"/>
+        <c:axId val="1305093311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2495,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1915684800"/>
+        <c:crossAx val="1305098111"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2504,7 +2503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1915684800"/>
+        <c:axId val="1305098111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2622,7 +2621,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1915688640"/>
+        <c:crossAx val="1305093311"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2739,8 +2738,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[연구비_집행관리.xlsx]예산분석!BudgetAnalysisPivot</c:name>
-    <c:fmtId val="1"/>
+    <c:name>[연구비_집행관리.xlsx]예산분석데이터!BudgetAnalysisPivot</c:name>
+    <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -3044,7 +3043,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>예산분석!$B$3:$B$4</c:f>
+              <c:f>예산분석데이터!$F$5:$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3065,7 +3064,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>예산분석!$A$5:$A$25</c:f>
+              <c:f>예산분석데이터!$E$7:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -3136,7 +3135,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>예산분석!$B$5:$B$25</c:f>
+              <c:f>예산분석데이터!$F$7:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3208,7 +3207,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5350-4B03-91B3-07877992C71D}"/>
+              <c16:uniqueId val="{00000002-413A-407A-BCC3-BBF39C3A5781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3217,7 +3216,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>예산분석!$C$3:$C$4</c:f>
+              <c:f>예산분석데이터!$G$5:$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3238,7 +3237,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>예산분석!$A$5:$A$25</c:f>
+              <c:f>예산분석데이터!$E$7:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -3309,7 +3308,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>예산분석!$C$5:$C$25</c:f>
+              <c:f>예산분석데이터!$G$7:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3381,7 +3380,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5350-4B03-91B3-07877992C71D}"/>
+              <c16:uniqueId val="{00000003-413A-407A-BCC3-BBF39C3A5781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3390,7 +3389,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>예산분석!$D$3:$D$4</c:f>
+              <c:f>예산분석데이터!$H$5:$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3411,7 +3410,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>예산분석!$A$5:$A$25</c:f>
+              <c:f>예산분석데이터!$E$7:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -3482,7 +3481,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>예산분석!$D$5:$D$25</c:f>
+              <c:f>예산분석데이터!$H$7:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3554,7 +3553,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5350-4B03-91B3-07877992C71D}"/>
+              <c16:uniqueId val="{00000004-413A-407A-BCC3-BBF39C3A5781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3563,7 +3562,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>예산분석!$E$3:$E$4</c:f>
+              <c:f>예산분석데이터!$I$5:$I$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3584,7 +3583,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>예산분석!$A$5:$A$25</c:f>
+              <c:f>예산분석데이터!$E$7:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -3655,7 +3654,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>예산분석!$E$5:$E$25</c:f>
+              <c:f>예산분석데이터!$I$7:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3727,7 +3726,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5350-4B03-91B3-07877992C71D}"/>
+              <c16:uniqueId val="{00000005-413A-407A-BCC3-BBF39C3A5781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3740,11 +3739,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1915659840"/>
-        <c:axId val="1915654560"/>
+        <c:axId val="1305066911"/>
+        <c:axId val="1305072671"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1915659840"/>
+        <c:axId val="1305066911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3787,7 +3786,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1915654560"/>
+        <c:crossAx val="1305072671"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3795,7 +3794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1915654560"/>
+        <c:axId val="1305072671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3846,7 +3845,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1915659840"/>
+        <c:crossAx val="1305066911"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3949,1190 +3948,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[연구비_집행관리.xlsx]예산분석!BudgetAnalysisPivot</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>예산 분석 차트</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>예산분석!$B$3:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>예산금액</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>예산분석!$A$5:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>국내여비</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>국외업무여비</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>급여성복리후생비(일용직)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>도서인쇄비</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>보험료</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>사업추진비</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>소모품비</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>시설장비유지비</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>유류비</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>일반용역비</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>일용임금</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>일용직 고용부담금</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>일용직 비급여성비용</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>임차료</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>제세공과금</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>지급수수료</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>통신비</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>피복비</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>행사비</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>홍보비</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>회의비</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>예산분석!$B$5:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>220000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19800000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29400000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29347216</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17400000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>281000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1256007740</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>277035006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11550000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>387000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6460038</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>82900000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>700000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23400000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3963-4307-9DE9-FFAD341C3CDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>예산분석!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>예산잔액</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>예산분석!$A$5:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>국내여비</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>국외업무여비</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>급여성복리후생비(일용직)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>도서인쇄비</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>보험료</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>사업추진비</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>소모품비</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>시설장비유지비</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>유류비</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>일반용역비</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>일용임금</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>일용직 고용부담금</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>일용직 비급여성비용</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>임차료</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>제세공과금</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>지급수수료</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>통신비</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>피복비</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>행사비</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>홍보비</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>회의비</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>예산분석!$C$5:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>216970000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30655000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19800000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28343350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27116846</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4568000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15845836</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>269244200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1256007740</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>277035006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11550000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>386010000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6460038</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80082400</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>700000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23400000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3963-4307-9DE9-FFAD341C3CDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>예산분석!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>지출액</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>예산분석!$A$5:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>국내여비</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>국외업무여비</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>급여성복리후생비(일용직)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>도서인쇄비</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>보험료</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>사업추진비</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>소모품비</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>시설장비유지비</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>유류비</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>일반용역비</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>일용임금</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>일용직 고용부담금</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>일용직 비급여성비용</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>임차료</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>제세공과금</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>지급수수료</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>통신비</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>피복비</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>행사비</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>홍보비</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>회의비</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>예산분석!$D$5:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>3030000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5345000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1056650</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2230370</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>432000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1554164</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11755800</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>990000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2817600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3963-4307-9DE9-FFAD341C3CDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>예산분석!$E$3:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>집행률(%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>예산분석!$A$5:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>국내여비</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>국외업무여비</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>급여성복리후생비(일용직)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>도서인쇄비</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>보험료</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>사업추진비</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>소모품비</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>시설장비유지비</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>유류비</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>일반용역비</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>일용임금</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>일용직 고용부담금</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>일용직 비급여성비용</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>임차료</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>제세공과금</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>지급수수료</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>통신비</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>피복비</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>행사비</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>홍보비</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>회의비</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>예산분석!$E$5:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3963-4307-9DE9-FFAD341C3CDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="601434351"/>
-        <c:axId val="601374351"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="601434351"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="601374351"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="601374351"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="601434351"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5174,46 +3989,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6285,522 +5060,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -6883,7 +5142,7 @@
         <xdr:cNvPr id="4" name="차트 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25AAB56-EA76-DBA7-1329-D873448C1C5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B46391-C90F-5C85-36FF-B99FA8A41A3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6921,7 +5180,7 @@
             <xdr:cNvPr id="5" name="DashboardYearSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7BCD55-A560-EE12-0EFF-86FA025A8E84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE69D89-C528-2E25-7A17-FE9D0CB5571F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6999,7 +5258,7 @@
             <xdr:cNvPr id="6" name="DashboardBudgetItemSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E63B9F-B96D-617B-1E47-4A1CFD10A0CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A845FE6D-54C2-8C87-BC41-00BFA1C4BF24}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7075,7 +5334,7 @@
         <xdr:cNvPr id="7" name="차트 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AC73B5-D6CA-EF13-45C2-AC93EEF56711}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9811CA11-FA6E-46E4-8171-BC387C008A7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7113,7 +5372,7 @@
             <xdr:cNvPr id="8" name="AnalysisMetricSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51781F1C-8D5A-11EB-85E1-611F55A05B7D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF7B1E1-1419-18D7-B7AB-FF99E177D108}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7191,7 +5450,7 @@
             <xdr:cNvPr id="9" name="AnalysisBudgetItemSlicer">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9248C1-7413-C5B6-43AC-B1AD326CADF4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD05B845-7C28-B609-6B18-3C625A6ACA56}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7252,127 +5511,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A96648-DB2D-7DBC-E6B2-B4B82D120836}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="BudgetItemSlicer">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF036B8-7BB5-1555-AAFC-6D61AA3ECC1E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="BudgetItemSlicer"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13335000" y="635000"/>
-              <a:ext cx="2540000" cy="3810000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-                <a:t>이 도형은 슬라이서를 나타냅니다. 슬라이서는 Excel 2010 이상에서 지원됩니다.
-이 도형이 이전 버전의 Excel에서 수정되었거나 통합 문서가 Excel 2003 또는 이전 버전에서 저장된 경우 슬라이서를 사용할 수 없습니다.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45915.369236342594" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="84" xr:uid="{1931B09D-8809-476B-AF70-A0EE14FE73E0}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45915.61449803241" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="84" xr:uid="{A391D67B-3820-4423-9561-522DEA290B4E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C85" sheet="예산분석데이터"/>
   </cacheSource>
@@ -7416,14 +5556,14 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="970758328"/>
+      <x14:pivotCacheDefinition pivotCacheId="997683316"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45915.369279861108" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="91" xr:uid="{AB37DA75-F49C-4621-ABC4-F90091F15B1F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="BB1" refreshedDate="45915.614543171294" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="91" xr:uid="{D90BEDDC-CC81-4F59-8A03-01EF194A421C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C92" sheet="연도별예산데이터"/>
   </cacheSource>
@@ -7470,7 +5610,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1468067312"/>
+      <x14:pivotCacheDefinition pivotCacheId="1532775960"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -8362,243 +6502,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04B34CB7-3671-4DF3-942B-66B012CABD13}" name="BudgetAnalysisPivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:E25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item x="17"/>
-        <item x="18"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="19"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="16"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="15"/>
-        <item x="5"/>
-        <item x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="21">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="값 합계" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="8">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF1E1A46-2E83-4BE3-AE5F-44DEAE4B6A25}" name="YearlyBudgetComparison" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABC0FEE4-A664-4FE8-93F8-75951332104A}" name="YearlyBudgetComparison" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="E5:I30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -8797,48 +6701,201 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{726926AD-373E-4ED0-ADCE-BAA64E1F8081}" name="BudgetAnalysisPivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="E5:I27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
+        <item x="17"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="값 합계" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목" xr10:uid="{A437C5FF-6D38-4282-95FC-D73577795873}" sourceName="예산과목">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_연도" xr10:uid="{53E702B4-885B-44AB-8F8C-6826F64B6714}" sourceName="연도">
   <pivotTables>
-    <pivotTable tabId="7" name="BudgetAnalysisPivot"/>
+    <pivotTable tabId="8" name="YearlyBudgetComparison"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="970758328">
-      <items count="21">
-        <i x="17" s="1"/>
-        <i x="18" s="1"/>
-        <i x="13" s="1"/>
-        <i x="3" s="1"/>
-        <i x="8" s="1"/>
-        <i x="19" s="1"/>
-        <i x="4" s="1"/>
-        <i x="12" s="1"/>
-        <i x="11" s="1"/>
-        <i x="16" s="1"/>
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="14" s="1"/>
-        <i x="10" s="1"/>
-        <i x="6" s="1"/>
-        <i x="2" s="1"/>
-        <i x="7" s="1"/>
-        <i x="9" s="1"/>
-        <i x="15" s="1"/>
-        <i x="5" s="1"/>
-        <i x="20" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_연도" xr10:uid="{002101E4-B8DF-4F80-B54C-2D146F9ADF5D}" sourceName="연도">
-  <pivotTables>
-    <pivotTable tabId="9" name="YearlyBudgetComparison"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1468067312">
+    <tabular pivotCacheId="1532775960">
       <items count="4">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
@@ -8850,13 +6907,13 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목1" xr10:uid="{D15D5A52-8C5A-4BEE-B278-5C072FCFE6E4}" sourceName="예산과목">
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목" xr10:uid="{B96EB79A-8402-4F3D-B4AC-12DEB2C76B8F}" sourceName="예산과목">
   <pivotTables>
-    <pivotTable tabId="9" name="YearlyBudgetComparison"/>
+    <pivotTable tabId="8" name="YearlyBudgetComparison"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1468067312">
+    <tabular pivotCacheId="1532775960">
       <items count="24">
         <i x="17" s="1"/>
         <i x="18" s="1"/>
@@ -8888,13 +6945,13 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_특성" xr10:uid="{1F49DE6C-EEC6-46FE-B149-EB8D743F808D}" sourceName="특성">
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_특성" xr10:uid="{5B81008F-D2BC-457E-B998-0F4FD93B4125}" sourceName="특성">
   <pivotTables>
     <pivotTable tabId="7" name="BudgetAnalysisPivot"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="970758328">
+    <tabular pivotCacheId="997683316">
       <items count="4">
         <i x="0" s="1"/>
         <i x="2" s="1"/>
@@ -8906,18 +6963,47 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_예산과목1" xr10:uid="{D0A9FE6C-7C0D-4C5B-978D-3D0FF59069CB}" sourceName="예산과목">
+  <pivotTables>
+    <pivotTable tabId="7" name="BudgetAnalysisPivot"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="997683316">
+      <items count="21">
+        <i x="17" s="1"/>
+        <i x="18" s="1"/>
+        <i x="13" s="1"/>
+        <i x="3" s="1"/>
+        <i x="8" s="1"/>
+        <i x="19" s="1"/>
+        <i x="4" s="1"/>
+        <i x="12" s="1"/>
+        <i x="11" s="1"/>
+        <i x="16" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="14" s="1"/>
+        <i x="10" s="1"/>
+        <i x="6" s="1"/>
+        <i x="2" s="1"/>
+        <i x="7" s="1"/>
+        <i x="9" s="1"/>
+        <i x="15" s="1"/>
+        <i x="5" s="1"/>
+        <i x="20" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="AnalysisBudgetItemSlicer" xr10:uid="{A31A7E0B-8700-46AA-A7D4-5F75AEDB3DAD}" cache="슬라이서_예산과목" caption="예산과목" rowHeight="273050"/>
-  <slicer name="DashboardYearSlicer" xr10:uid="{91127FC6-A9BF-42F9-A8A0-47ED8BEF8AF6}" cache="슬라이서_연도" caption="연도 선택" rowHeight="273050"/>
-  <slicer name="DashboardBudgetItemSlicer" xr10:uid="{42346838-7800-407C-96AB-19F7FC520F19}" cache="슬라이서_예산과목1" caption="예산과목_연도별" rowHeight="273050"/>
-  <slicer name="AnalysisMetricSlicer" xr10:uid="{5FD74987-414C-422F-981B-D153853CF1D8}" cache="슬라이서_특성" caption="측정항목" rowHeight="273050"/>
-</slicers>
-</file>
-
-<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="BudgetItemSlicer" xr10:uid="{C1E8B6F1-35E7-4506-9A69-2A7103BBD79C}" cache="슬라이서_예산과목" caption="예산과목 선택" rowHeight="273050"/>
+  <slicer name="DashboardYearSlicer" xr10:uid="{28DBFECE-32E4-4E02-9B35-A4F830456FAA}" cache="슬라이서_연도" caption="연도 선택" rowHeight="273050"/>
+  <slicer name="DashboardBudgetItemSlicer" xr10:uid="{29158518-4F3D-4728-9774-72E83D749DBF}" cache="슬라이서_예산과목" caption="예산과목_연도별" rowHeight="273050"/>
+  <slicer name="AnalysisMetricSlicer" xr10:uid="{90D78EBC-9881-405C-BC57-152908E796F6}" cache="슬라이서_특성" caption="측정항목" rowHeight="273050"/>
+  <slicer name="AnalysisBudgetItemSlicer" xr10:uid="{95E9A97A-CD21-4EBD-BE46-A86C4A251A28}" cache="슬라이서_예산과목1" caption="예산과목" rowHeight="273050"/>
 </slicers>
 </file>
 
@@ -9450,8 +7536,8 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="10" t="str">
-        <f>IFERROR(ROUND((총액!E23+총액!F23)/(총액!D23-총액!D4-총액!D5)*100,1)&amp;"%","0%")</f>
-        <v>1.1%</v>
+        <f>IFERROR(ROUND(((총액!E23+총액!F23)-(총액!E2+총액!F2+총액!E3+총액!F3))/(총액!D23-총액!D2-총액!D3)*100,1)&amp;"%","0%")</f>
+        <v>2.5%</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="10" t="str">
@@ -22412,419 +20498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559E79D2-8B9C-4F45-BA68-66DF04B0AB1A}">
-  <dimension ref="A3:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5">
-      <c r="A3" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5">
-        <v>220000000</v>
-      </c>
-      <c r="C5">
-        <v>216970000</v>
-      </c>
-      <c r="D5">
-        <v>3030000</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6">
-        <v>36000000</v>
-      </c>
-      <c r="C6">
-        <v>30655000</v>
-      </c>
-      <c r="D6">
-        <v>5345000</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7">
-        <v>19800000</v>
-      </c>
-      <c r="C7">
-        <v>19800000</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>37000000</v>
-      </c>
-      <c r="C8">
-        <v>37000000</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10">
-        <v>29400000</v>
-      </c>
-      <c r="C10">
-        <v>28343350</v>
-      </c>
-      <c r="D10">
-        <v>1056650</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>29347216</v>
-      </c>
-      <c r="C11">
-        <v>27116846</v>
-      </c>
-      <c r="D11">
-        <v>2230370</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12">
-        <v>5000000</v>
-      </c>
-      <c r="C12">
-        <v>4568000</v>
-      </c>
-      <c r="D12">
-        <v>432000</v>
-      </c>
-      <c r="E12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>17400000</v>
-      </c>
-      <c r="C13">
-        <v>15845836</v>
-      </c>
-      <c r="D13">
-        <v>1554164</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14">
-        <v>281000000</v>
-      </c>
-      <c r="C14">
-        <v>269244200</v>
-      </c>
-      <c r="D14">
-        <v>11755800</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15">
-        <v>1256007740</v>
-      </c>
-      <c r="C15">
-        <v>1256007740</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16">
-        <v>277035006</v>
-      </c>
-      <c r="C16">
-        <v>277035006</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>11550000</v>
-      </c>
-      <c r="C17">
-        <v>11550000</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18">
-        <v>387000000</v>
-      </c>
-      <c r="C18">
-        <v>386010000</v>
-      </c>
-      <c r="D18">
-        <v>990000</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19">
-        <v>6460038</v>
-      </c>
-      <c r="C19">
-        <v>6460038</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20">
-        <v>82900000</v>
-      </c>
-      <c r="C20">
-        <v>80082400</v>
-      </c>
-      <c r="D20">
-        <v>2817600</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>700000</v>
-      </c>
-      <c r="C21">
-        <v>700000</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22">
-        <v>23400000</v>
-      </c>
-      <c r="C22">
-        <v>23400000</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F30E57-1580-4B5D-A4A7-A6DBE8719E23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675AE7CA-AD01-4F18-A9F7-BA8A17D264BE}">
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24222,15 +21896,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DBF981-B82C-4E26-9488-D39DA96C1C60}">
-  <dimension ref="A1:C85"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6F24BD-C5E3-45D3-9FB3-80BC2A731AE8}">
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -24241,7 +21923,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -24252,7 +21934,7 @@
         <v>1256007740</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -24263,7 +21945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -24274,7 +21956,7 @@
         <v>1256007740</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -24284,8 +21966,14 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -24295,8 +21983,23 @@
       <c r="C6">
         <v>277035006</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -24306,8 +22009,23 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>220000000</v>
+      </c>
+      <c r="G7">
+        <v>216970000</v>
+      </c>
+      <c r="H7">
+        <v>3030000</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -24317,8 +22035,23 @@
       <c r="C8">
         <v>277035006</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8">
+        <v>36000000</v>
+      </c>
+      <c r="G8">
+        <v>30655000</v>
+      </c>
+      <c r="H8">
+        <v>5345000</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -24328,8 +22061,23 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9">
+        <v>19800000</v>
+      </c>
+      <c r="G9">
+        <v>19800000</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -24339,8 +22087,23 @@
       <c r="C10">
         <v>82900000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>37000000</v>
+      </c>
+      <c r="G10">
+        <v>37000000</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -24350,8 +22113,23 @@
       <c r="C11">
         <v>2817600</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -24361,8 +22139,23 @@
       <c r="C12">
         <v>80082400</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>29400000</v>
+      </c>
+      <c r="G12">
+        <v>28343350</v>
+      </c>
+      <c r="H12">
+        <v>1056650</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -24372,8 +22165,23 @@
       <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>29347216</v>
+      </c>
+      <c r="G13">
+        <v>27116846</v>
+      </c>
+      <c r="H13">
+        <v>2230370</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -24383,8 +22191,23 @@
       <c r="C14">
         <v>37000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="E14" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>5000000</v>
+      </c>
+      <c r="G14">
+        <v>4568000</v>
+      </c>
+      <c r="H14">
+        <v>432000</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -24394,8 +22217,23 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="E15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15">
+        <v>17400000</v>
+      </c>
+      <c r="G15">
+        <v>15845836</v>
+      </c>
+      <c r="H15">
+        <v>1554164</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -24405,8 +22243,23 @@
       <c r="C16">
         <v>37000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16">
+        <v>281000000</v>
+      </c>
+      <c r="G16">
+        <v>269244200</v>
+      </c>
+      <c r="H16">
+        <v>11755800</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -24416,8 +22269,23 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17">
+        <v>1256007740</v>
+      </c>
+      <c r="G17">
+        <v>1256007740</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -24427,8 +22295,23 @@
       <c r="C18">
         <v>29347216</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>277035006</v>
+      </c>
+      <c r="G18">
+        <v>277035006</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -24438,8 +22321,23 @@
       <c r="C19">
         <v>2230370</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19">
+        <v>11550000</v>
+      </c>
+      <c r="G19">
+        <v>11550000</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -24449,8 +22347,23 @@
       <c r="C20">
         <v>27116846</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20">
+        <v>387000000</v>
+      </c>
+      <c r="G20">
+        <v>386010000</v>
+      </c>
+      <c r="H20">
+        <v>990000</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -24460,8 +22373,23 @@
       <c r="C21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>6460038</v>
+      </c>
+      <c r="G21">
+        <v>6460038</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -24471,8 +22399,23 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>82900000</v>
+      </c>
+      <c r="G22">
+        <v>80082400</v>
+      </c>
+      <c r="H22">
+        <v>2817600</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -24482,8 +22425,23 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E23" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>700000</v>
+      </c>
+      <c r="G23">
+        <v>700000</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -24493,8 +22451,23 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24">
+        <v>23400000</v>
+      </c>
+      <c r="G24">
+        <v>23400000</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -24504,8 +22477,23 @@
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -24515,8 +22503,23 @@
       <c r="C26">
         <v>6460038</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -24526,8 +22529,23 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="E27" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -24538,7 +22556,7 @@
         <v>6460038</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -24549,7 +22567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -24560,7 +22578,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -24571,7 +22589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>45</v>
       </c>
